--- a/data/psat-shit.xlsx
+++ b/data/psat-shit.xlsx
@@ -8,121 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsht/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFE1231-503D-4940-A49E-DC37BC269F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5229F9A1-C8BE-614C-AC15-879F325F6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5FE96707-E043-0F41-80C4-D121D80118FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$3:$O$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$P$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$P$3:$P$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$Q$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$Q$3:$Q$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$R$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$R$3:$R$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$S$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$S$3:$S$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$T$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$T$3:$T$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$U$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$U$3:$U$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$V$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$V$3:$V$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$T$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$T$32</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$T$32</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$T$32</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$T$33:$T$34</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$U$32</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$U$33:$U$34</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$V$32</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$V$33:$V$34</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$T$32</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$O$33:$O$34</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$P$32</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$P$33:$P$34</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$Q$32</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$Q$33:$Q$34</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$R$32</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$R$33:$R$34</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$S$32</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$S$33:$S$34</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Sheet1!$T$32</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -165,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
   <si>
     <t>Female</t>
   </si>
@@ -324,12 +217,6 @@
   </si>
   <si>
     <t>&lt;200</t>
-  </si>
-  <si>
-    <t>Selection Index Table</t>
-  </si>
-  <si>
-    <t>Math↓/ERW→</t>
   </si>
   <si>
     <t>PSAT Math</t>
@@ -553,11 +440,50 @@
   <si>
     <t>214-208</t>
   </si>
+  <si>
+    <t>PSAT (Expected)</t>
+  </si>
+  <si>
+    <t>Selection Index (Actual)</t>
+  </si>
+  <si>
+    <t>Male PSAT proportion</t>
+  </si>
+  <si>
+    <t>PSAT size</t>
+  </si>
+  <si>
+    <t>Male SI proportion</t>
+  </si>
+  <si>
+    <t>SI size</t>
+  </si>
+  <si>
+    <t>pooled proportion</t>
+  </si>
+  <si>
+    <t>test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Chi-square:</t>
+  </si>
+  <si>
+    <t>White PSAT proportion</t>
+  </si>
+  <si>
+    <t>White SI proportion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.0000000000000000000000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -626,18 +552,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -663,9 +583,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -675,50 +592,22 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1065,19 +954,19 @@
                   <c:v>1.5463969861589488E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12309804035346883</c:v>
+                  <c:v>0.12309804035346872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32954737629162267</c:v>
+                  <c:v>0.32954737629162256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35159345631024275</c:v>
+                  <c:v>0.35159345631024286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14956776667708926</c:v>
+                  <c:v>0.14956776667708935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6481945102130776E-2</c:v>
+                  <c:v>2.6481945102130807E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,6 +4631,1623 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1304304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ERW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> score distributions by race</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>760-700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$13:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>690-600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>590-500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>490-400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>390-300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$17:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>290-160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$12:$V$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$18:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EDF7-284C-9070-CA1DC34573D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="77508448"/>
+        <c:axId val="77440864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77508448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77440864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77440864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77508448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Math score distributions by race</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>760-700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>690-600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$24:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>590-500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$25:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>490-400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$26:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>390-300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$27:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>290-160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>American Indian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>African American</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Native Hawaiian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Two or More Races</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$28:$V$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8AB5-6941-B1FA-B55CB581A3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1318847344"/>
+        <c:axId val="1291163200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1318847344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291163200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1291163200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318847344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5101,6 +6607,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8628,20 +10214,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>173567</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990599</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1117601</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>118536</xdr:rowOff>
+      <xdr:colOff>651932</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152403</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8668,16 +11260,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>588432</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80435</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1045631</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>973665</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8704,16 +11296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>482599</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63498</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>897466</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>491064</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>8466</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508002</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8812,16 +11404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71966</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237066</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8848,16 +11440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>245535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80432</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482602</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>567269</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>156632</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>855135</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8877,6 +11469,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618068</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC68E4D-7210-9B50-7BCB-E6C5D785DA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715432</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1240366</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CDE91D-5C3D-AC8D-80D1-056479CB37AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9202,10 +11866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE6516-8B46-344C-B5C5-CBA3EF4E8891}">
-  <dimension ref="A1:AZ117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="Q57" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AB80" sqref="AB80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -9225,31 +11889,32 @@
     <col min="14" max="14" width="19.6640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="14" style="4" customWidth="1"/>
     <col min="16" max="16" width="11" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="18"/>
+    <col min="17" max="17" width="10.83203125" style="17"/>
     <col min="18" max="18" width="10" style="4" customWidth="1"/>
     <col min="19" max="19" width="13.83203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" style="4" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="14.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" style="4" customWidth="1"/>
     <col min="23" max="23" width="16.6640625" style="4" customWidth="1"/>
-    <col min="24" max="52" width="3.83203125" style="4" customWidth="1"/>
-    <col min="53" max="16384" width="10.83203125" style="4"/>
+    <col min="24" max="26" width="10.83203125" style="4"/>
+    <col min="27" max="27" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -9274,30 +11939,30 @@
       <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
@@ -9346,7 +12011,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
@@ -9395,7 +12060,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -9444,7 +12109,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -9533,16 +12198,16 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="J8" s="4">
         <v>942</v>
       </c>
@@ -9633,7 +12298,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4">
@@ -9692,7 +12357,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
@@ -9727,7 +12392,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
@@ -9763,30 +12428,30 @@
       <c r="N12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -9822,30 +12487,30 @@
       <c r="O13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>0.01</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="19">
         <v>0.01</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="19">
         <v>0.01</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="19">
         <v>0.01</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="19">
         <v>0.05</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -9881,30 +12546,30 @@
       <c r="O14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <v>0.08</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="19">
         <v>0.33</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="19">
         <v>0.1</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="19">
         <v>0.09</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="19">
         <v>0.25</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -9940,30 +12605,30 @@
       <c r="O15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="19">
         <v>0.23</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="19">
         <v>0.3</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="19">
         <v>0.21</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <v>0.25</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="19">
         <v>0.24</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="19">
         <v>0.35</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="19">
         <v>0.33</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4">
@@ -9999,30 +12664,30 @@
       <c r="O16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="19">
         <v>0.34</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="19">
         <v>0.16</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="19">
         <v>0.34</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="19">
         <v>0.33</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="19">
         <v>0.33</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="19">
         <v>0.24</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V16" s="19">
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
@@ -10051,30 +12716,30 @@
       <c r="O17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="19">
         <v>0.32</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="19">
         <v>0.33</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="19">
         <v>0.3</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="19">
         <v>0.1</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="19">
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4">
@@ -10092,29 +12757,29 @@
       <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="19">
         <v>0.03</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="19">
         <v>0</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="19">
         <v>0.04</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="19">
         <v>0.03</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="19">
         <v>0.03</v>
       </c>
-      <c r="U18" s="21">
+      <c r="U18" s="19">
         <v>0.01</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N19" s="4" t="s">
         <v>28</v>
       </c>
@@ -10140,42 +12805,39 @@
         <v>545.9</v>
       </c>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -10203,8 +12865,8 @@
         <v>111.9386354213772</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="4">
@@ -10238,38 +12900,38 @@
         <v>57996</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="S21" s="18"/>
+      <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>1460</v>
       </c>
@@ -10306,29 +12968,29 @@
       <c r="O23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="19">
         <v>0.01</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="19">
         <v>0.21</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="19">
         <v>0</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="19">
         <v>0.01</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="19">
         <v>0.01</v>
       </c>
-      <c r="U23" s="21">
+      <c r="U23" s="19">
         <v>0.03</v>
       </c>
-      <c r="V23" s="21">
+      <c r="V23" s="19">
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>1300</v>
       </c>
@@ -10365,29 +13027,29 @@
       <c r="O24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="19">
         <v>0.03</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="19">
         <v>0.22</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="19">
         <v>0.02</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="19">
         <v>0.04</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="19">
         <v>0.04</v>
       </c>
-      <c r="U24" s="21">
+      <c r="U24" s="19">
         <v>0.12</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="19">
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>1100</v>
       </c>
@@ -10424,29 +13086,29 @@
       <c r="O25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="19">
         <v>0.21</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="19">
         <v>0.33</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="19">
         <v>0.17</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="19">
         <v>0.23</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="19">
         <v>0.22</v>
       </c>
-      <c r="U25" s="21">
+      <c r="U25" s="19">
         <v>0.4</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25" s="19">
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>900</v>
       </c>
@@ -10483,29 +13145,29 @@
       <c r="O26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="19">
         <v>0.49</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="19">
         <v>0.2</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="19">
         <v>0.49</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="19">
         <v>0.48</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="19">
         <v>0.48</v>
       </c>
-      <c r="U26" s="21">
+      <c r="U26" s="19">
         <v>0.35</v>
       </c>
-      <c r="V26" s="21">
+      <c r="V26" s="19">
         <v>0.34</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>700</v>
       </c>
@@ -10542,29 +13204,29 @@
       <c r="O27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="19">
         <v>0.25</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="19">
         <v>0.05</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="19">
         <v>0.23</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="19">
         <v>0.24</v>
       </c>
-      <c r="U27" s="21">
+      <c r="U27" s="19">
         <v>0.09</v>
       </c>
-      <c r="V27" s="21">
+      <c r="V27" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>460</v>
       </c>
@@ -10601,41 +13263,41 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="19">
         <v>0.02</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="19">
         <v>0</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="19">
         <v>0.03</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="19">
         <v>0.02</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="19">
         <v>0.02</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U28" s="19">
         <v>0.01</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="7">
         <f>SUMPRODUCT(C23:C28,(B23:B28))</f>
         <v>979.4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <f>SUMPRODUCT(D23:D28,B23:B28)</f>
         <v>990.80000000000007</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <f>SUMPRODUCT(E23:E28,B23:B28)</f>
         <v>981.00000000000011</v>
       </c>
@@ -10692,8 +13354,8 @@
         <v>522.09999999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="7" cm="1">
@@ -10739,7 +13401,7 @@
       <c r="N30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="22">
         <v>87.019136401138809</v>
       </c>
       <c r="Q30" s="7">
@@ -10761,15 +13423,15 @@
         <v>102.91002915168181</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="5"/>
       <c r="P31" s="7"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>730</v>
       </c>
@@ -10806,25 +13468,25 @@
       <c r="N32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="U32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10863,7 +13525,7 @@
         <v>0.26</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P33" s="6">
         <f>_xlfn.NORM.DIST(228,P37,P38,TRUE)-_xlfn.NORM.DIST(215,P37,P38,TRUE)</f>
@@ -10929,7 +13591,7 @@
         <v>0.33</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P34" s="6">
         <f>_xlfn.NORM.DIST(215,P37,P38,TRUE)-_xlfn.NORM.DIST(208,P37,P38,TRUE)</f>
@@ -10995,7 +13657,7 @@
         <v>0.23</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P35" s="6">
         <f>_xlfn.NORM.DIST(208,P37,P38,TRUE)-_xlfn.NORM.DIST(200,P37,P38,TRUE)</f>
@@ -11134,7 +13796,7 @@
         <f>(2*P19+P29)/10</f>
         <v>137.03</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="Q37" s="23">
         <f>(2*Q19+Q29)/10</f>
         <v>174.17000000000002</v>
       </c>
@@ -11142,7 +13804,7 @@
         <f t="shared" ref="R37:V37" si="6">(2*R19+R29)/10</f>
         <v>132.39000000000001</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="23">
         <f t="shared" si="6"/>
         <v>138.72999999999999</v>
       </c>
@@ -11150,7 +13812,7 @@
         <f t="shared" si="6"/>
         <v>137.53</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="23">
         <f t="shared" si="6"/>
         <v>158.47999999999999</v>
       </c>
@@ -11160,7 +13822,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="7">
@@ -11179,7 +13841,7 @@
         <f>SUMPRODUCT(F32:F37,B32:B37)</f>
         <v>457.7</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="7">
         <f>SUMPRODUCT(G32:G37,B32:B37)</f>
         <v>578.20000000000005</v>
       </c>
@@ -11195,7 +13857,7 @@
         <f>SUMPRODUCT(J32:J37,B32:B37)</f>
         <v>458.2</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="7">
         <f>SUMPRODUCT(K32:K37,B32:B37)</f>
         <v>536.79999999999995</v>
       </c>
@@ -11207,36 +13869,36 @@
         <v>29</v>
       </c>
       <c r="P38" s="7">
-        <f>SQRT(4*P20^2+P30^2+4*P87*P20*P30)/10</f>
+        <f t="shared" ref="P38:V38" si="7">SQRT(4*P20^2+P30^2+4*P87*P20*P30)/10</f>
         <v>27.406068153953278</v>
       </c>
       <c r="Q38" s="7">
-        <f>SQRT(4*Q20^2+Q30^2+4*Q87*Q20*Q30)/10</f>
+        <f t="shared" si="7"/>
         <v>24.066929779263496</v>
       </c>
       <c r="R38" s="7">
-        <f>SQRT(4*R20^2+R30^2+4*R87*R20*R30)/10</f>
+        <f t="shared" si="7"/>
         <v>22.405359604344675</v>
       </c>
       <c r="S38" s="7">
-        <f>SQRT(4*S20^2+S30^2+4*S87*S20*S30)/10</f>
+        <f t="shared" si="7"/>
         <v>23.104007899063745</v>
       </c>
       <c r="T38" s="7">
-        <f>SQRT(4*T20^2+T30^2+4*T87*T20*T30)/10</f>
+        <f t="shared" si="7"/>
         <v>22.940950743157963</v>
       </c>
       <c r="U38" s="7">
-        <f>SQRT(4*U20^2+U30^2+4*U87*U20*U30)/10</f>
+        <f t="shared" si="7"/>
         <v>23.295836537888054</v>
       </c>
       <c r="V38" s="7">
-        <f>SQRT(4*V20^2+V30^2+4*V87*V20*V30)/10</f>
+        <f t="shared" si="7"/>
         <v>24.639705050994422</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="7" cm="1">
@@ -11281,10 +13943,10 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="5"/>
       <c r="N40" s="4" t="s">
         <v>33</v>
@@ -11367,7 +14029,7 @@
       <c r="P42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="17" t="s">
         <v>34</v>
       </c>
       <c r="R42" s="4" t="s">
@@ -11376,7 +14038,7 @@
       <c r="S42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U42" s="11" t="s">
+      <c r="U42" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11420,21 +14082,21 @@
       <c r="P43" s="6">
         <v>0.02</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="18">
         <f>_xlfn.NORM.DIST(1520,P49,P50,TRUE)-_xlfn.NORM.DIST(1400,P49,P50,TRUE)</f>
         <v>1.5463969861589488E-2</v>
       </c>
       <c r="R43" s="6">
         <v>0.04</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="18">
         <f>_xlfn.NORM.DIST(1520,R49,R50,TRUE)-_xlfn.NORM.DIST(1400,R49,R50,TRUE)</f>
         <v>2.0152616274583868E-2</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U43" s="21">
+      <c r="U43" s="19">
         <v>0.21</v>
       </c>
     </row>
@@ -11478,21 +14140,21 @@
       <c r="P44" s="6">
         <v>0.13</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="Q44" s="18">
         <f>_xlfn.NORM.DIST(1400,P49,P50,TRUE)-_xlfn.NORM.DIST(1200,P49,P50,TRUE)</f>
-        <v>0.12309804035346883</v>
+        <v>0.12309804035346872</v>
       </c>
       <c r="R44" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="18">
         <f>_xlfn.NORM.DIST(1400,R49,R50,TRUE)-_xlfn.NORM.DIST(1200,R49,R50,TRUE)</f>
         <v>0.1272481006331897</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U44" s="21">
+      <c r="U44" s="19">
         <v>0.22</v>
       </c>
     </row>
@@ -11536,21 +14198,21 @@
       <c r="P45" s="6">
         <v>0.32</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="18">
         <f>_xlfn.NORM.DIST(1200,P49,P50,TRUE)-_xlfn.NORM.DIST(1000,P49,P50,TRUE)</f>
-        <v>0.32954737629162267</v>
+        <v>0.32954737629162256</v>
       </c>
       <c r="R45" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="18">
         <f>_xlfn.NORM.DIST(1200,R49,R50,TRUE)-_xlfn.NORM.DIST(1000,R49,R50,TRUE)</f>
         <v>0.30289704143613783</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="21">
+      <c r="U45" s="19">
         <v>0.33</v>
       </c>
     </row>
@@ -11594,26 +14256,26 @@
       <c r="P46" s="6">
         <v>0.36</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="Q46" s="18">
         <f>_xlfn.NORM.DIST(1000,P49,P50,TRUE)-_xlfn.NORM.DIST(800,P49,P50,TRUE)</f>
-        <v>0.35159345631024275</v>
+        <v>0.35159345631024286</v>
       </c>
       <c r="R46" s="6">
         <v>0.32</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="18">
         <f>_xlfn.NORM.DIST(1000,R49,R50,TRUE)-_xlfn.NORM.DIST(800,R49,R50,TRUE)</f>
         <v>0.33207511871923157</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U46" s="21">
+      <c r="U46" s="19">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="7">
@@ -11632,7 +14294,7 @@
         <f>SUMPRODUCT(F41:F46,B41:B46)</f>
         <v>454.90000000000003</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="7">
         <f>SUMPRODUCT(G41:G46,B41:B46)</f>
         <v>585.29999999999995</v>
       </c>
@@ -11648,7 +14310,7 @@
         <f>SUMPRODUCT(J41:J46,B41:B46)</f>
         <v>458.90000000000003</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="7">
         <f>SUMPRODUCT(K41:K46,B41:B46)</f>
         <v>511.2</v>
       </c>
@@ -11662,26 +14324,26 @@
       <c r="P47" s="6">
         <v>0.16</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="Q47" s="18">
         <f>_xlfn.NORM.DIST(800,P49,P50,TRUE)-_xlfn.NORM.DIST(600,P49,P50,TRUE)</f>
-        <v>0.14956776667708926</v>
+        <v>0.14956776667708935</v>
       </c>
       <c r="R47" s="6">
         <v>0.2</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="18">
         <f>_xlfn.NORM.DIST(800,R49,R50,TRUE)-_xlfn.NORM.DIST(600,R49,R50,TRUE)</f>
         <v>0.16774765760836566</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U47" s="21">
+      <c r="U47" s="19">
         <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="7" cm="1">
@@ -11730,31 +14392,31 @@
       <c r="P48" s="6">
         <v>0.01</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="Q48" s="18">
         <f>_xlfn.NORM.DIST(600,P49,P50,TRUE)-_xlfn.NORM.DIST(320,P49,P50,TRUE)</f>
-        <v>2.6481945102130776E-2</v>
+        <v>2.6481945102130807E-2</v>
       </c>
       <c r="R48" s="6">
         <v>0.01</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="18">
         <f>_xlfn.NORM.DIST(600,R49,R50,TRUE)-_xlfn.NORM.DIST(320,R49,R50,TRUE)</f>
         <v>4.1861207837349569E-2</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U48" s="21">
+      <c r="U48" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
       <c r="N49" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P49" s="4">
-        <v>985.90000000000009</v>
+        <v>985.9</v>
       </c>
       <c r="R49" s="4">
         <v>976.25</v>
@@ -11763,7 +14425,7 @@
         <v>585.29999999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="N50" s="4" t="s">
         <v>29</v>
@@ -11778,18 +14440,18 @@
         <v>110.26636341151367</v>
       </c>
     </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="C52" s="17"/>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C52" s="16"/>
       <c r="N52" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="Q52" s="17" t="s">
         <v>34</v>
       </c>
       <c r="R52" s="4" t="s">
@@ -11799,131 +14461,131 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="C53" s="17"/>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C53" s="16"/>
       <c r="O53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="20">
         <v>0.04</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="21">
         <f>_xlfn.NORM.DIST(760,P59,P60,TRUE)-_xlfn.NORM.DIST(700,P59,P60,TRUE)</f>
         <v>3.3439952050672406E-2</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="20">
         <v>0.04</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S53" s="21">
         <f>_xlfn.NORM.DIST(760,R59,R60,TRUE)-_xlfn.NORM.DIST(700,R59,R60,TRUE)</f>
         <v>2.611084839531963E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="C54" s="17"/>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C54" s="16"/>
       <c r="O54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P54" s="20">
         <v>0.19</v>
       </c>
-      <c r="Q54" s="23">
+      <c r="Q54" s="21">
         <f>_xlfn.NORM.DIST(700,P59,P60,TRUE)-_xlfn.NORM.DIST(600,P59,P60,TRUE)</f>
         <v>0.16502756899816673</v>
       </c>
-      <c r="R54" s="22">
+      <c r="R54" s="20">
         <v>0.18</v>
       </c>
-      <c r="S54" s="23">
+      <c r="S54" s="21">
         <f>_xlfn.NORM.DIST(700,R59,R60,TRUE)-_xlfn.NORM.DIST(600,R59,R60,TRUE)</f>
         <v>0.13620102218380392</v>
       </c>
     </row>
-    <row r="55" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="17"/>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
       <c r="E55" s="1"/>
       <c r="O55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="20">
         <v>0.31</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="Q55" s="21">
         <f>_xlfn.NORM.DIST(600,P59,P60,TRUE)-_xlfn.NORM.DIST(500,P59,P60,TRUE)</f>
         <v>0.31658195285244517</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="20">
         <v>0.27</v>
       </c>
-      <c r="S55" s="23">
+      <c r="S55" s="21">
         <f>_xlfn.NORM.DIST(600,R59,R60,TRUE)-_xlfn.NORM.DIST(500,R59,R60,TRUE)</f>
         <v>0.28823866578963697</v>
       </c>
     </row>
-    <row r="56" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B56" s="13"/>
       <c r="C56" s="7"/>
       <c r="O56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P56" s="22">
+      <c r="P56" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="21">
         <f>_xlfn.NORM.DIST(500,P59,P60,TRUE)-_xlfn.NORM.DIST(400,P59,P60,TRUE)</f>
         <v>0.29811556808142647</v>
       </c>
-      <c r="R56" s="22">
+      <c r="R56" s="20">
         <v>0.26</v>
       </c>
-      <c r="S56" s="23">
+      <c r="S56" s="21">
         <f>_xlfn.NORM.DIST(500,R59,R60,TRUE)-_xlfn.NORM.DIST(400,R59,R60,TRUE)</f>
         <v>0.31130087367509396</v>
       </c>
     </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B57" s="13"/>
       <c r="C57" s="7"/>
       <c r="O57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P57" s="20">
         <v>0.17</v>
       </c>
-      <c r="Q57" s="23">
+      <c r="Q57" s="21">
         <f>_xlfn.NORM.DIST(400,P59,P60,TRUE)-_xlfn.NORM.DIST(300,P59,P60,TRUE)</f>
         <v>0.13777208762128429</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="20">
         <v>0.22</v>
       </c>
-      <c r="S57" s="23">
+      <c r="S57" s="21">
         <f>_xlfn.NORM.DIST(400,R59,R60,TRUE)-_xlfn.NORM.DIST(300,R59,R60,TRUE)</f>
         <v>0.17161771391183472</v>
       </c>
     </row>
-    <row r="58" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B58" s="14"/>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B58" s="13"/>
       <c r="O58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P58" s="22">
+      <c r="P58" s="20">
         <v>0.02</v>
       </c>
-      <c r="Q58" s="23">
+      <c r="Q58" s="21">
         <f>_xlfn.NORM.DIST(300,P59,P60,TRUE)-_xlfn.NORM.DIST(160,P59,P60,TRUE)</f>
         <v>3.3583685378797586E-2</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R58" s="20">
         <v>0.02</v>
       </c>
-      <c r="S58" s="23">
+      <c r="S58" s="21">
         <f>_xlfn.NORM.DIST(300,R59,R60,TRUE)-_xlfn.NORM.DIST(160,R59,R60,TRUE)</f>
         <v>5.2851142894514216E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="N59" s="4" t="s">
         <v>28</v>
       </c>
@@ -11933,9 +14595,10 @@
       <c r="R59" s="4">
         <v>488.54999999999995</v>
       </c>
+      <c r="X59" s="18"/>
     </row>
-    <row r="60" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B60" s="14"/>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B60" s="13"/>
       <c r="N60" s="4" t="s">
         <v>29</v>
       </c>
@@ -11945,137 +14608,18 @@
       <c r="R60" s="4">
         <v>118.38005100100271</v>
       </c>
-      <c r="W60" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="X60" s="18"/>
     </row>
-    <row r="61" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B61" s="14"/>
-      <c r="W61" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X61" s="4">
-        <v>760</v>
-      </c>
-      <c r="Y61" s="4">
-        <f>X61-10</f>
-        <v>750</v>
-      </c>
-      <c r="Z61" s="4">
-        <f t="shared" ref="Z61:AN61" si="7">Y61-10</f>
-        <v>740</v>
-      </c>
-      <c r="AA61" s="4">
-        <f t="shared" si="7"/>
-        <v>730</v>
-      </c>
-      <c r="AB61" s="4">
-        <f t="shared" si="7"/>
-        <v>720</v>
-      </c>
-      <c r="AC61" s="4">
-        <f t="shared" si="7"/>
-        <v>710</v>
-      </c>
-      <c r="AD61" s="4">
-        <f t="shared" si="7"/>
-        <v>700</v>
-      </c>
-      <c r="AE61" s="4">
-        <f t="shared" si="7"/>
-        <v>690</v>
-      </c>
-      <c r="AF61" s="4">
-        <f t="shared" si="7"/>
-        <v>680</v>
-      </c>
-      <c r="AG61" s="4">
-        <f t="shared" si="7"/>
-        <v>670</v>
-      </c>
-      <c r="AH61" s="4">
-        <f t="shared" si="7"/>
-        <v>660</v>
-      </c>
-      <c r="AI61" s="4">
-        <f t="shared" si="7"/>
-        <v>650</v>
-      </c>
-      <c r="AJ61" s="4">
-        <f t="shared" si="7"/>
-        <v>640</v>
-      </c>
-      <c r="AK61" s="4">
-        <f t="shared" si="7"/>
-        <v>630</v>
-      </c>
-      <c r="AL61" s="4">
-        <f t="shared" si="7"/>
-        <v>620</v>
-      </c>
-      <c r="AM61" s="4">
-        <f t="shared" si="7"/>
-        <v>610</v>
-      </c>
-      <c r="AN61" s="4">
-        <f t="shared" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="AO61" s="4">
-        <f t="shared" ref="AO61:AZ61" si="8">AN61-10</f>
-        <v>590</v>
-      </c>
-      <c r="AP61" s="4">
-        <f t="shared" si="8"/>
-        <v>580</v>
-      </c>
-      <c r="AQ61" s="4">
-        <f t="shared" si="8"/>
-        <v>570</v>
-      </c>
-      <c r="AR61" s="4">
-        <f t="shared" si="8"/>
-        <v>560</v>
-      </c>
-      <c r="AS61" s="4">
-        <f t="shared" si="8"/>
-        <v>550</v>
-      </c>
-      <c r="AT61" s="4">
-        <f t="shared" si="8"/>
-        <v>540</v>
-      </c>
-      <c r="AU61" s="4">
-        <f t="shared" si="8"/>
-        <v>530</v>
-      </c>
-      <c r="AV61" s="4">
-        <f t="shared" si="8"/>
-        <v>520</v>
-      </c>
-      <c r="AW61" s="4">
-        <f t="shared" si="8"/>
-        <v>510</v>
-      </c>
-      <c r="AX61" s="4">
-        <f t="shared" si="8"/>
-        <v>500</v>
-      </c>
-      <c r="AY61" s="4">
-        <f t="shared" si="8"/>
-        <v>490</v>
-      </c>
-      <c r="AZ61" s="4">
-        <f t="shared" si="8"/>
-        <v>480</v>
-      </c>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B61" s="13"/>
+      <c r="W61" s="9"/>
     </row>
-    <row r="62" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B62" s="14" t="s">
-        <v>70</v>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>38</v>
@@ -12083,7 +14627,7 @@
       <c r="P62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q62" s="18" t="s">
+      <c r="Q62" s="17" t="s">
         <v>34</v>
       </c>
       <c r="R62" s="4" t="s">
@@ -12092,129 +14636,19 @@
       <c r="S62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W62" s="4">
-        <v>760</v>
-      </c>
-      <c r="X62" s="19">
-        <f>(2*X61+W62)/10</f>
-        <v>228</v>
-      </c>
-      <c r="Y62" s="19">
-        <f>X62-2</f>
-        <v>226</v>
-      </c>
-      <c r="Z62" s="19">
-        <f t="shared" ref="Z62:AN62" si="9">Y62-2</f>
-        <v>224</v>
-      </c>
-      <c r="AA62" s="19">
-        <f t="shared" si="9"/>
-        <v>222</v>
-      </c>
-      <c r="AB62" s="19">
-        <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-      <c r="AC62" s="4">
-        <f t="shared" si="9"/>
-        <v>218</v>
-      </c>
-      <c r="AD62" s="4">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="AE62" s="4">
-        <f t="shared" si="9"/>
-        <v>214</v>
-      </c>
-      <c r="AF62" s="4">
-        <f t="shared" si="9"/>
-        <v>212</v>
-      </c>
-      <c r="AG62" s="4">
-        <f t="shared" si="9"/>
-        <v>210</v>
-      </c>
-      <c r="AH62" s="4">
-        <f t="shared" si="9"/>
-        <v>208</v>
-      </c>
-      <c r="AI62" s="4">
-        <f t="shared" si="9"/>
-        <v>206</v>
-      </c>
-      <c r="AJ62" s="4">
-        <f t="shared" si="9"/>
-        <v>204</v>
-      </c>
-      <c r="AK62" s="4">
-        <f t="shared" si="9"/>
-        <v>202</v>
-      </c>
-      <c r="AL62" s="4">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="AM62" s="4">
-        <f t="shared" si="9"/>
-        <v>198</v>
-      </c>
-      <c r="AN62" s="4">
-        <f t="shared" si="9"/>
-        <v>196</v>
-      </c>
-      <c r="AO62" s="4">
-        <f t="shared" ref="AO62:AZ62" si="10">AN62-2</f>
-        <v>194</v>
-      </c>
-      <c r="AP62" s="4">
-        <f t="shared" si="10"/>
-        <v>192</v>
-      </c>
-      <c r="AQ62" s="4">
-        <f t="shared" si="10"/>
-        <v>190</v>
-      </c>
-      <c r="AR62" s="4">
-        <f t="shared" si="10"/>
-        <v>188</v>
-      </c>
-      <c r="AS62" s="4">
-        <f t="shared" si="10"/>
-        <v>186</v>
-      </c>
-      <c r="AT62" s="4">
-        <f t="shared" si="10"/>
-        <v>184</v>
-      </c>
-      <c r="AU62" s="4">
-        <f t="shared" si="10"/>
-        <v>182</v>
-      </c>
-      <c r="AV62" s="4">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="AW62" s="4">
-        <f t="shared" si="10"/>
-        <v>178</v>
-      </c>
-      <c r="AX62" s="4">
-        <f t="shared" si="10"/>
-        <v>176</v>
-      </c>
-      <c r="AY62" s="4">
-        <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-      <c r="AZ62" s="4">
-        <f t="shared" si="10"/>
-        <v>172</v>
+      <c r="V62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B63" s="14" t="s">
-        <v>72</v>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C63" s="4">
         <v>212</v>
@@ -12222,144 +14656,40 @@
       <c r="O63" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P63" s="22">
+      <c r="P63" s="20">
         <v>0.03</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="Q63" s="21">
         <f>_xlfn.NORM.DIST(760,P69,P70,TRUE)-_xlfn.NORM.DIST(700,P69,P70,TRUE)</f>
         <v>9.15703549096758E-3</v>
       </c>
-      <c r="R63" s="22">
+      <c r="R63" s="20">
         <v>0.05</v>
       </c>
-      <c r="S63" s="23">
+      <c r="S63" s="21">
         <f>_xlfn.NORM.DIST(760,R69,R70,TRUE)-_xlfn.NORM.DIST(700,R69,R70,TRUE)</f>
         <v>2.0879503143743539E-2</v>
       </c>
-      <c r="W63" s="4">
-        <f>W62-10</f>
-        <v>750</v>
-      </c>
-      <c r="X63" s="4">
-        <f>X62-1</f>
-        <v>227</v>
-      </c>
-      <c r="Y63" s="4">
-        <f t="shared" ref="Y63:AN64" si="11">Y62-1</f>
-        <v>225</v>
-      </c>
-      <c r="Z63" s="4">
-        <f t="shared" si="11"/>
-        <v>223</v>
+      <c r="V63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="X63" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="Z63" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="AA63" s="4">
-        <f t="shared" si="11"/>
-        <v>221</v>
-      </c>
-      <c r="AB63" s="4">
-        <f t="shared" si="11"/>
-        <v>219</v>
-      </c>
-      <c r="AC63" s="4">
-        <f t="shared" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="AD63" s="4">
-        <f t="shared" si="11"/>
-        <v>215</v>
-      </c>
-      <c r="AE63" s="4">
-        <f t="shared" si="11"/>
-        <v>213</v>
-      </c>
-      <c r="AF63" s="4">
-        <f t="shared" si="11"/>
-        <v>211</v>
-      </c>
-      <c r="AG63" s="4">
-        <f t="shared" si="11"/>
-        <v>209</v>
-      </c>
-      <c r="AH63" s="4">
-        <f t="shared" si="11"/>
-        <v>207</v>
-      </c>
-      <c r="AI63" s="4">
-        <f t="shared" si="11"/>
-        <v>205</v>
-      </c>
-      <c r="AJ63" s="4">
-        <f t="shared" si="11"/>
-        <v>203</v>
-      </c>
-      <c r="AK63" s="4">
-        <f t="shared" si="11"/>
-        <v>201</v>
-      </c>
-      <c r="AL63" s="4">
-        <f t="shared" si="11"/>
-        <v>199</v>
-      </c>
-      <c r="AM63" s="4">
-        <f t="shared" si="11"/>
-        <v>197</v>
-      </c>
-      <c r="AN63" s="4">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
-      <c r="AO63" s="4">
-        <f t="shared" ref="AO63:AO90" si="12">AO62-1</f>
-        <v>193</v>
-      </c>
-      <c r="AP63" s="4">
-        <f t="shared" ref="AP63:AP90" si="13">AP62-1</f>
-        <v>191</v>
-      </c>
-      <c r="AQ63" s="4">
-        <f t="shared" ref="AQ63:AQ90" si="14">AQ62-1</f>
-        <v>189</v>
-      </c>
-      <c r="AR63" s="4">
-        <f t="shared" ref="AR63:AR90" si="15">AR62-1</f>
-        <v>187</v>
-      </c>
-      <c r="AS63" s="4">
-        <f t="shared" ref="AS63:AS90" si="16">AS62-1</f>
-        <v>185</v>
-      </c>
-      <c r="AT63" s="4">
-        <f t="shared" ref="AT63:AT90" si="17">AT62-1</f>
-        <v>183</v>
-      </c>
-      <c r="AU63" s="4">
-        <f t="shared" ref="AU63:AU90" si="18">AU62-1</f>
-        <v>181</v>
-      </c>
-      <c r="AV63" s="4">
-        <f t="shared" ref="AV63:AV90" si="19">AV62-1</f>
-        <v>179</v>
-      </c>
-      <c r="AW63" s="4">
-        <f t="shared" ref="AW63:AW90" si="20">AW62-1</f>
-        <v>177</v>
-      </c>
-      <c r="AX63" s="4">
-        <f t="shared" ref="AX63:AX90" si="21">AX62-1</f>
-        <v>175</v>
-      </c>
-      <c r="AY63" s="4">
-        <f t="shared" ref="AY63:AY90" si="22">AY62-1</f>
-        <v>173</v>
-      </c>
-      <c r="AZ63" s="4">
-        <f t="shared" ref="AZ63:AZ90" si="23">AZ62-1</f>
-        <v>171</v>
+        <f>X63/(X63+W63)</f>
+        <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="64" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B64" s="14" t="s">
-        <v>73</v>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C64" s="4">
         <v>214</v>
@@ -12367,144 +14697,40 @@
       <c r="O64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P64" s="22">
+      <c r="P64" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="Q64" s="21">
         <f>_xlfn.NORM.DIST(700,P69,P70,TRUE)-_xlfn.NORM.DIST(600,P69,P70,TRUE)</f>
         <v>9.4853076125344771E-2</v>
       </c>
-      <c r="R64" s="22">
+      <c r="R64" s="20">
         <v>0.11</v>
       </c>
-      <c r="S64" s="23">
+      <c r="S64" s="21">
         <f>_xlfn.NORM.DIST(700,R69,R70,TRUE)-_xlfn.NORM.DIST(600,R69,R70,TRUE)</f>
         <v>0.13105050156837894</v>
       </c>
-      <c r="W64" s="4">
-        <f t="shared" ref="W64:W88" si="24">W63-10</f>
-        <v>740</v>
-      </c>
-      <c r="X64" s="4">
-        <f t="shared" ref="X64" si="25">X63-1</f>
-        <v>226</v>
-      </c>
-      <c r="Y64" s="4">
-        <f t="shared" si="11"/>
-        <v>224</v>
-      </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="11"/>
-        <v>222</v>
-      </c>
-      <c r="AA64" s="4">
-        <f t="shared" si="11"/>
-        <v>220</v>
-      </c>
-      <c r="AB64" s="4">
-        <f t="shared" si="11"/>
-        <v>218</v>
-      </c>
-      <c r="AC64" s="4">
-        <f t="shared" si="11"/>
-        <v>216</v>
-      </c>
-      <c r="AD64" s="4">
-        <f t="shared" si="11"/>
-        <v>214</v>
-      </c>
-      <c r="AE64" s="4">
-        <f t="shared" si="11"/>
-        <v>212</v>
-      </c>
-      <c r="AF64" s="4">
-        <f t="shared" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="AG64" s="4">
-        <f t="shared" si="11"/>
-        <v>208</v>
-      </c>
-      <c r="AH64" s="4">
-        <f t="shared" si="11"/>
-        <v>206</v>
-      </c>
-      <c r="AI64" s="4">
-        <f t="shared" si="11"/>
-        <v>204</v>
-      </c>
-      <c r="AJ64" s="4">
-        <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="AK64" s="4">
-        <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="AL64" s="4">
-        <f t="shared" si="11"/>
-        <v>198</v>
-      </c>
-      <c r="AM64" s="4">
-        <f t="shared" si="11"/>
-        <v>196</v>
-      </c>
-      <c r="AN64" s="4">
-        <f t="shared" si="11"/>
-        <v>194</v>
-      </c>
-      <c r="AO64" s="4">
-        <f t="shared" si="12"/>
-        <v>192</v>
-      </c>
-      <c r="AP64" s="4">
-        <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-      <c r="AQ64" s="4">
-        <f t="shared" si="14"/>
-        <v>188</v>
-      </c>
-      <c r="AR64" s="4">
-        <f t="shared" si="15"/>
-        <v>186</v>
-      </c>
-      <c r="AS64" s="4">
-        <f t="shared" si="16"/>
-        <v>184</v>
-      </c>
-      <c r="AT64" s="4">
-        <f t="shared" si="17"/>
-        <v>182</v>
-      </c>
-      <c r="AU64" s="4">
-        <f t="shared" si="18"/>
-        <v>180</v>
-      </c>
-      <c r="AV64" s="4">
-        <f t="shared" si="19"/>
-        <v>178</v>
-      </c>
-      <c r="AW64" s="4">
-        <f t="shared" si="20"/>
-        <v>176</v>
-      </c>
-      <c r="AX64" s="4">
-        <f t="shared" si="21"/>
-        <v>174</v>
-      </c>
-      <c r="AY64" s="4">
-        <f t="shared" si="22"/>
-        <v>172</v>
-      </c>
-      <c r="AZ64" s="4">
-        <f t="shared" si="23"/>
-        <v>170</v>
+      <c r="V64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W64" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="X64" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z64" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA64" s="7">
+        <f>(W63+X63)*B18</f>
+        <v>89219.94</v>
       </c>
     </row>
-    <row r="65" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B65" s="14" t="s">
-        <v>74</v>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C65" s="4">
         <v>217</v>
@@ -12512,144 +14738,31 @@
       <c r="O65" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P65" s="22">
+      <c r="P65" s="20">
         <v>0.31</v>
       </c>
-      <c r="Q65" s="23">
+      <c r="Q65" s="21">
         <f>_xlfn.NORM.DIST(600,P69,P70,TRUE)-_xlfn.NORM.DIST(500,P69,P70,TRUE)</f>
         <v>0.31295327367810655</v>
       </c>
-      <c r="R65" s="22">
+      <c r="R65" s="20">
         <v>0.3</v>
       </c>
-      <c r="S65" s="23">
+      <c r="S65" s="21">
         <f>_xlfn.NORM.DIST(600,R69,R70,TRUE)-_xlfn.NORM.DIST(500,R69,R70,TRUE)</f>
         <v>0.30782426057917889</v>
       </c>
-      <c r="W65" s="4">
-        <f t="shared" si="24"/>
-        <v>730</v>
-      </c>
-      <c r="X65" s="4">
-        <f t="shared" ref="X65:X88" si="26">X64-1</f>
-        <v>225</v>
-      </c>
-      <c r="Y65" s="4">
-        <f t="shared" ref="Y65:Y88" si="27">Y64-1</f>
-        <v>223</v>
-      </c>
-      <c r="Z65" s="4">
-        <f t="shared" ref="Z65:Z88" si="28">Z64-1</f>
-        <v>221</v>
+      <c r="Z65" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="AA65" s="4">
-        <f t="shared" ref="AA65:AA88" si="29">AA64-1</f>
-        <v>219</v>
-      </c>
-      <c r="AB65" s="4">
-        <f t="shared" ref="AB65:AB88" si="30">AB64-1</f>
-        <v>217</v>
-      </c>
-      <c r="AC65" s="4">
-        <f t="shared" ref="AC65:AC88" si="31">AC64-1</f>
-        <v>215</v>
-      </c>
-      <c r="AD65" s="4">
-        <f t="shared" ref="AD65:AD88" si="32">AD64-1</f>
-        <v>213</v>
-      </c>
-      <c r="AE65" s="4">
-        <f t="shared" ref="AE65:AE88" si="33">AE64-1</f>
-        <v>211</v>
-      </c>
-      <c r="AF65" s="4">
-        <f t="shared" ref="AF65:AF88" si="34">AF64-1</f>
-        <v>209</v>
-      </c>
-      <c r="AG65" s="4">
-        <f t="shared" ref="AG65:AG88" si="35">AG64-1</f>
-        <v>207</v>
-      </c>
-      <c r="AH65" s="4">
-        <f t="shared" ref="AH65:AH88" si="36">AH64-1</f>
-        <v>205</v>
-      </c>
-      <c r="AI65" s="4">
-        <f t="shared" ref="AI65:AI88" si="37">AI64-1</f>
-        <v>203</v>
-      </c>
-      <c r="AJ65" s="4">
-        <f t="shared" ref="AJ65:AJ88" si="38">AJ64-1</f>
-        <v>201</v>
-      </c>
-      <c r="AK65" s="4">
-        <f t="shared" ref="AK65:AK88" si="39">AK64-1</f>
-        <v>199</v>
-      </c>
-      <c r="AL65" s="4">
-        <f t="shared" ref="AL65:AL88" si="40">AL64-1</f>
-        <v>197</v>
-      </c>
-      <c r="AM65" s="4">
-        <f t="shared" ref="AM65:AM88" si="41">AM64-1</f>
-        <v>195</v>
-      </c>
-      <c r="AN65" s="4">
-        <f t="shared" ref="AN65:AN88" si="42">AN64-1</f>
-        <v>193</v>
-      </c>
-      <c r="AO65" s="4">
-        <f t="shared" si="12"/>
-        <v>191</v>
-      </c>
-      <c r="AP65" s="4">
-        <f t="shared" si="13"/>
-        <v>189</v>
-      </c>
-      <c r="AQ65" s="4">
-        <f t="shared" si="14"/>
-        <v>187</v>
-      </c>
-      <c r="AR65" s="4">
-        <f t="shared" si="15"/>
-        <v>185</v>
-      </c>
-      <c r="AS65" s="4">
-        <f t="shared" si="16"/>
-        <v>183</v>
-      </c>
-      <c r="AT65" s="4">
-        <f t="shared" si="17"/>
-        <v>181</v>
-      </c>
-      <c r="AU65" s="4">
-        <f t="shared" si="18"/>
-        <v>179</v>
-      </c>
-      <c r="AV65" s="4">
-        <f t="shared" si="19"/>
-        <v>177</v>
-      </c>
-      <c r="AW65" s="4">
-        <f t="shared" si="20"/>
-        <v>175</v>
-      </c>
-      <c r="AX65" s="4">
-        <f t="shared" si="21"/>
-        <v>173</v>
-      </c>
-      <c r="AY65" s="4">
-        <f t="shared" si="22"/>
-        <v>171</v>
-      </c>
-      <c r="AZ65" s="4">
-        <f t="shared" si="23"/>
-        <v>169</v>
+        <f>X67/(X67+W67)</f>
+        <v>0.50878955782443769</v>
       </c>
     </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B66" s="14" t="s">
-        <v>75</v>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C66" s="4">
         <v>213</v>
@@ -12657,144 +14770,40 @@
       <c r="O66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P66" s="22">
+      <c r="P66" s="20">
         <v>0.42</v>
       </c>
-      <c r="Q66" s="23">
+      <c r="Q66" s="21">
         <f>_xlfn.NORM.DIST(500,P69,P70,TRUE)-_xlfn.NORM.DIST(400,P69,P70,TRUE)</f>
         <v>0.38055938612305451</v>
       </c>
-      <c r="R66" s="22">
+      <c r="R66" s="20">
         <v>0.36</v>
       </c>
-      <c r="S66" s="23">
+      <c r="S66" s="21">
         <f>_xlfn.NORM.DIST(500,R69,R70,TRUE)-_xlfn.NORM.DIST(400,R69,R70,TRUE)</f>
         <v>0.33064609940250722</v>
       </c>
-      <c r="W66" s="4">
-        <f t="shared" si="24"/>
-        <v>720</v>
-      </c>
-      <c r="X66" s="4">
-        <f t="shared" si="26"/>
-        <v>224</v>
-      </c>
-      <c r="Y66" s="4">
-        <f t="shared" si="27"/>
-        <v>222</v>
-      </c>
-      <c r="Z66" s="4">
-        <f t="shared" si="28"/>
-        <v>220</v>
+      <c r="V66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="AA66" s="4">
-        <f t="shared" si="29"/>
-        <v>218</v>
-      </c>
-      <c r="AB66" s="4">
-        <f t="shared" si="30"/>
-        <v>216</v>
-      </c>
-      <c r="AC66" s="4">
-        <f t="shared" si="31"/>
-        <v>214</v>
-      </c>
-      <c r="AD66" s="4">
-        <f t="shared" si="32"/>
-        <v>212</v>
-      </c>
-      <c r="AE66" s="4">
-        <f t="shared" si="33"/>
-        <v>210</v>
-      </c>
-      <c r="AF66" s="4">
-        <f t="shared" si="34"/>
-        <v>208</v>
-      </c>
-      <c r="AG66" s="4">
-        <f t="shared" si="35"/>
-        <v>206</v>
-      </c>
-      <c r="AH66" s="4">
-        <f t="shared" si="36"/>
-        <v>204</v>
-      </c>
-      <c r="AI66" s="4">
-        <f t="shared" si="37"/>
-        <v>202</v>
-      </c>
-      <c r="AJ66" s="4">
-        <f t="shared" si="38"/>
-        <v>200</v>
-      </c>
-      <c r="AK66" s="4">
-        <f t="shared" si="39"/>
-        <v>198</v>
-      </c>
-      <c r="AL66" s="4">
-        <f t="shared" si="40"/>
-        <v>196</v>
-      </c>
-      <c r="AM66" s="4">
-        <f t="shared" si="41"/>
-        <v>194</v>
-      </c>
-      <c r="AN66" s="4">
-        <f t="shared" si="42"/>
-        <v>192</v>
-      </c>
-      <c r="AO66" s="4">
-        <f t="shared" si="12"/>
-        <v>190</v>
-      </c>
-      <c r="AP66" s="4">
-        <f t="shared" si="13"/>
-        <v>188</v>
-      </c>
-      <c r="AQ66" s="4">
-        <f t="shared" si="14"/>
-        <v>186</v>
-      </c>
-      <c r="AR66" s="4">
-        <f t="shared" si="15"/>
-        <v>184</v>
-      </c>
-      <c r="AS66" s="4">
-        <f t="shared" si="16"/>
-        <v>182</v>
-      </c>
-      <c r="AT66" s="4">
-        <f t="shared" si="17"/>
-        <v>180</v>
-      </c>
-      <c r="AU66" s="4">
-        <f t="shared" si="18"/>
-        <v>178</v>
-      </c>
-      <c r="AV66" s="4">
-        <f t="shared" si="19"/>
-        <v>176</v>
-      </c>
-      <c r="AW66" s="4">
-        <f t="shared" si="20"/>
-        <v>174</v>
-      </c>
-      <c r="AX66" s="4">
-        <f t="shared" si="21"/>
-        <v>172</v>
-      </c>
-      <c r="AY66" s="4">
-        <f t="shared" si="22"/>
-        <v>170</v>
-      </c>
-      <c r="AZ66" s="4">
-        <f t="shared" si="23"/>
-        <v>168</v>
+        <f>(X67+W67)*B18</f>
+        <v>31530.122658975768</v>
       </c>
     </row>
-    <row r="67" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
-        <v>76</v>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C67" s="4">
         <v>221</v>
@@ -12802,144 +14811,33 @@
       <c r="O67" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P67" s="22">
+      <c r="P67" s="20">
         <v>0.16</v>
       </c>
-      <c r="Q67" s="23">
+      <c r="Q67" s="21">
         <f>_xlfn.NORM.DIST(400,P69,P70,TRUE)-_xlfn.NORM.DIST(300,P69,P70,TRUE)</f>
         <v>0.17089366327384262</v>
       </c>
-      <c r="R67" s="22">
+      <c r="R67" s="20">
         <v>0.16</v>
       </c>
-      <c r="S67" s="23">
+      <c r="S67" s="21">
         <f>_xlfn.NORM.DIST(400,R69,R70,TRUE)-_xlfn.NORM.DIST(300,R69,R70,TRUE)</f>
         <v>0.16246711765969027</v>
       </c>
+      <c r="V67" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="W67" s="4">
-        <f t="shared" si="24"/>
-        <v>710</v>
+        <v>1.0415558781926015E-2</v>
       </c>
       <c r="X67" s="4">
-        <f t="shared" si="26"/>
-        <v>223</v>
-      </c>
-      <c r="Y67" s="4">
-        <f t="shared" si="27"/>
-        <v>221</v>
-      </c>
-      <c r="Z67" s="4">
-        <f t="shared" si="28"/>
-        <v>219</v>
-      </c>
-      <c r="AA67" s="4">
-        <f t="shared" si="29"/>
-        <v>217</v>
-      </c>
-      <c r="AB67" s="4">
-        <f t="shared" si="30"/>
-        <v>215</v>
-      </c>
-      <c r="AC67" s="4">
-        <f t="shared" si="31"/>
-        <v>213</v>
-      </c>
-      <c r="AD67" s="4">
-        <f t="shared" si="32"/>
-        <v>211</v>
-      </c>
-      <c r="AE67" s="4">
-        <f t="shared" si="33"/>
-        <v>209</v>
-      </c>
-      <c r="AF67" s="4">
-        <f t="shared" si="34"/>
-        <v>207</v>
-      </c>
-      <c r="AG67" s="4">
-        <f t="shared" si="35"/>
-        <v>205</v>
-      </c>
-      <c r="AH67" s="4">
-        <f t="shared" si="36"/>
-        <v>203</v>
-      </c>
-      <c r="AI67" s="4">
-        <f t="shared" si="37"/>
-        <v>201</v>
-      </c>
-      <c r="AJ67" s="4">
-        <f t="shared" si="38"/>
-        <v>199</v>
-      </c>
-      <c r="AK67" s="4">
-        <f t="shared" si="39"/>
-        <v>197</v>
-      </c>
-      <c r="AL67" s="4">
-        <f t="shared" si="40"/>
-        <v>195</v>
-      </c>
-      <c r="AM67" s="4">
-        <f t="shared" si="41"/>
-        <v>193</v>
-      </c>
-      <c r="AN67" s="4">
-        <f t="shared" si="42"/>
-        <v>191</v>
-      </c>
-      <c r="AO67" s="4">
-        <f t="shared" si="12"/>
-        <v>189</v>
-      </c>
-      <c r="AP67" s="4">
-        <f t="shared" si="13"/>
-        <v>187</v>
-      </c>
-      <c r="AQ67" s="4">
-        <f t="shared" si="14"/>
-        <v>185</v>
-      </c>
-      <c r="AR67" s="4">
-        <f t="shared" si="15"/>
-        <v>183</v>
-      </c>
-      <c r="AS67" s="4">
-        <f t="shared" si="16"/>
-        <v>181</v>
-      </c>
-      <c r="AT67" s="4">
-        <f t="shared" si="17"/>
-        <v>179</v>
-      </c>
-      <c r="AU67" s="4">
-        <f t="shared" si="18"/>
-        <v>177</v>
-      </c>
-      <c r="AV67" s="4">
-        <f t="shared" si="19"/>
-        <v>175</v>
-      </c>
-      <c r="AW67" s="4">
-        <f t="shared" si="20"/>
-        <v>173</v>
-      </c>
-      <c r="AX67" s="4">
-        <f t="shared" si="21"/>
-        <v>171</v>
-      </c>
-      <c r="AY67" s="4">
-        <f t="shared" si="22"/>
-        <v>169</v>
-      </c>
-      <c r="AZ67" s="4">
-        <f t="shared" si="23"/>
-        <v>167</v>
+        <v>1.0788303936862476E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
-        <v>77</v>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C68" s="4">
         <v>218</v>
@@ -12947,144 +14845,40 @@
       <c r="O68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P68" s="22">
+      <c r="P68" s="20">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="23">
+      <c r="Q68" s="21">
         <f>_xlfn.NORM.DIST(300,P69,P70,TRUE)-_xlfn.NORM.DIST(160,P69,P70,TRUE)</f>
         <v>2.9422970415713637E-2</v>
       </c>
-      <c r="R68" s="22">
+      <c r="R68" s="20">
         <v>0.02</v>
       </c>
-      <c r="S68" s="23">
+      <c r="S68" s="21">
         <f>_xlfn.NORM.DIST(300,R69,R70,TRUE)-_xlfn.NORM.DIST(160,R69,R70,TRUE)</f>
         <v>3.9047267667029963E-2</v>
       </c>
+      <c r="V68" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="W68" s="4">
-        <f t="shared" si="24"/>
-        <v>700</v>
+        <v>1.1385101621528393E-2</v>
       </c>
       <c r="X68" s="4">
-        <f t="shared" si="26"/>
-        <v>222</v>
-      </c>
-      <c r="Y68" s="4">
-        <f t="shared" si="27"/>
-        <v>220</v>
-      </c>
-      <c r="Z68" s="4">
-        <f t="shared" si="28"/>
-        <v>218</v>
+        <v>1.1250376271177309E-2</v>
+      </c>
+      <c r="Z68" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="AA68" s="4">
-        <f t="shared" si="29"/>
-        <v>216</v>
-      </c>
-      <c r="AB68" s="4">
-        <f t="shared" si="30"/>
-        <v>214</v>
-      </c>
-      <c r="AC68" s="4">
-        <f t="shared" si="31"/>
-        <v>212</v>
-      </c>
-      <c r="AD68" s="4">
-        <f t="shared" si="32"/>
-        <v>210</v>
-      </c>
-      <c r="AE68" s="4">
-        <f t="shared" si="33"/>
-        <v>208</v>
-      </c>
-      <c r="AF68" s="4">
-        <f t="shared" si="34"/>
-        <v>206</v>
-      </c>
-      <c r="AG68" s="4">
-        <f t="shared" si="35"/>
-        <v>204</v>
-      </c>
-      <c r="AH68" s="4">
-        <f t="shared" si="36"/>
-        <v>202</v>
-      </c>
-      <c r="AI68" s="4">
-        <f t="shared" si="37"/>
-        <v>200</v>
-      </c>
-      <c r="AJ68" s="4">
-        <f t="shared" si="38"/>
-        <v>198</v>
-      </c>
-      <c r="AK68" s="4">
-        <f t="shared" si="39"/>
-        <v>196</v>
-      </c>
-      <c r="AL68" s="4">
-        <f t="shared" si="40"/>
-        <v>194</v>
-      </c>
-      <c r="AM68" s="4">
-        <f t="shared" si="41"/>
-        <v>192</v>
-      </c>
-      <c r="AN68" s="4">
-        <f t="shared" si="42"/>
-        <v>190</v>
-      </c>
-      <c r="AO68" s="4">
-        <f t="shared" si="12"/>
-        <v>188</v>
-      </c>
-      <c r="AP68" s="4">
-        <f t="shared" si="13"/>
-        <v>186</v>
-      </c>
-      <c r="AQ68" s="4">
-        <f t="shared" si="14"/>
-        <v>184</v>
-      </c>
-      <c r="AR68" s="4">
-        <f t="shared" si="15"/>
-        <v>182</v>
-      </c>
-      <c r="AS68" s="4">
-        <f t="shared" si="16"/>
-        <v>180</v>
-      </c>
-      <c r="AT68" s="4">
-        <f t="shared" si="17"/>
-        <v>178</v>
-      </c>
-      <c r="AU68" s="4">
-        <f t="shared" si="18"/>
-        <v>176</v>
-      </c>
-      <c r="AV68" s="4">
-        <f t="shared" si="19"/>
-        <v>174</v>
-      </c>
-      <c r="AW68" s="4">
-        <f t="shared" si="20"/>
-        <v>172</v>
-      </c>
-      <c r="AX68" s="4">
-        <f t="shared" si="21"/>
-        <v>170</v>
-      </c>
-      <c r="AY68" s="4">
-        <f t="shared" si="22"/>
-        <v>168</v>
-      </c>
-      <c r="AZ68" s="4">
-        <f t="shared" si="23"/>
-        <v>166</v>
+        <f>(AA63*AA64+AA65*AA66)/(AA64+AA66)</f>
+        <v>0.62544197081786557</v>
       </c>
     </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B69" s="14" t="s">
-        <v>78</v>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C69" s="4">
         <v>221</v>
@@ -13098,130 +14892,17 @@
       <c r="R69" s="4">
         <v>490.84999999999997</v>
       </c>
-      <c r="W69" s="4">
-        <f t="shared" si="24"/>
-        <v>690</v>
-      </c>
-      <c r="X69" s="4">
-        <f t="shared" si="26"/>
-        <v>221</v>
-      </c>
-      <c r="Y69" s="4">
-        <f t="shared" si="27"/>
-        <v>219</v>
-      </c>
-      <c r="Z69" s="4">
-        <f t="shared" si="28"/>
-        <v>217</v>
+      <c r="Z69" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="AA69" s="4">
-        <f t="shared" si="29"/>
-        <v>215</v>
-      </c>
-      <c r="AB69" s="4">
-        <f t="shared" si="30"/>
-        <v>213</v>
-      </c>
-      <c r="AC69" s="4">
-        <f t="shared" si="31"/>
-        <v>211</v>
-      </c>
-      <c r="AD69" s="4">
-        <f t="shared" si="32"/>
-        <v>209</v>
-      </c>
-      <c r="AE69" s="4">
-        <f t="shared" si="33"/>
-        <v>207</v>
-      </c>
-      <c r="AF69" s="4">
-        <f t="shared" si="34"/>
-        <v>205</v>
-      </c>
-      <c r="AG69" s="4">
-        <f t="shared" si="35"/>
-        <v>203</v>
-      </c>
-      <c r="AH69" s="4">
-        <f t="shared" si="36"/>
-        <v>201</v>
-      </c>
-      <c r="AI69" s="4">
-        <f t="shared" si="37"/>
-        <v>199</v>
-      </c>
-      <c r="AJ69" s="4">
-        <f t="shared" si="38"/>
-        <v>197</v>
-      </c>
-      <c r="AK69" s="4">
-        <f t="shared" si="39"/>
-        <v>195</v>
-      </c>
-      <c r="AL69" s="4">
-        <f t="shared" si="40"/>
-        <v>193</v>
-      </c>
-      <c r="AM69" s="4">
-        <f t="shared" si="41"/>
-        <v>191</v>
-      </c>
-      <c r="AN69" s="4">
-        <f t="shared" si="42"/>
-        <v>189</v>
-      </c>
-      <c r="AO69" s="4">
-        <f t="shared" si="12"/>
-        <v>187</v>
-      </c>
-      <c r="AP69" s="4">
-        <f t="shared" si="13"/>
-        <v>185</v>
-      </c>
-      <c r="AQ69" s="4">
-        <f t="shared" si="14"/>
-        <v>183</v>
-      </c>
-      <c r="AR69" s="4">
-        <f t="shared" si="15"/>
-        <v>181</v>
-      </c>
-      <c r="AS69" s="4">
-        <f t="shared" si="16"/>
-        <v>179</v>
-      </c>
-      <c r="AT69" s="4">
-        <f t="shared" si="17"/>
-        <v>177</v>
-      </c>
-      <c r="AU69" s="4">
-        <f t="shared" si="18"/>
-        <v>175</v>
-      </c>
-      <c r="AV69" s="4">
-        <f t="shared" si="19"/>
-        <v>173</v>
-      </c>
-      <c r="AW69" s="4">
-        <f t="shared" si="20"/>
-        <v>171</v>
-      </c>
-      <c r="AX69" s="4">
-        <f t="shared" si="21"/>
-        <v>169</v>
-      </c>
-      <c r="AY69" s="4">
-        <f t="shared" si="22"/>
-        <v>167</v>
-      </c>
-      <c r="AZ69" s="4">
-        <f t="shared" si="23"/>
-        <v>165</v>
+        <f>(AA63-AA65)/SQRT(AA68*(1-AA68)*((1/AA64)+(1/AA66)))</f>
+        <v>49.787028834177583</v>
       </c>
     </row>
-    <row r="70" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B70" s="14" t="s">
-        <v>79</v>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C70" s="4">
         <v>219</v>
@@ -13235,258 +14916,32 @@
       <c r="R70" s="4">
         <v>109.21093122943326</v>
       </c>
+      <c r="V70" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="W70" s="4">
-        <f t="shared" si="24"/>
-        <v>680</v>
-      </c>
-      <c r="X70" s="4">
-        <f t="shared" si="26"/>
-        <v>220</v>
-      </c>
-      <c r="Y70" s="4">
-        <f t="shared" si="27"/>
-        <v>218</v>
-      </c>
-      <c r="Z70" s="4">
-        <f t="shared" si="28"/>
-        <v>216</v>
-      </c>
-      <c r="AA70" s="4">
-        <f t="shared" si="29"/>
-        <v>214</v>
-      </c>
-      <c r="AB70" s="4">
-        <f t="shared" si="30"/>
-        <v>212</v>
-      </c>
-      <c r="AC70" s="4">
-        <f t="shared" si="31"/>
-        <v>210</v>
-      </c>
-      <c r="AD70" s="4">
-        <f t="shared" si="32"/>
-        <v>208</v>
-      </c>
-      <c r="AE70" s="4">
-        <f t="shared" si="33"/>
-        <v>206</v>
-      </c>
-      <c r="AF70" s="4">
-        <f t="shared" si="34"/>
-        <v>204</v>
-      </c>
-      <c r="AG70" s="4">
-        <f t="shared" si="35"/>
-        <v>202</v>
-      </c>
-      <c r="AH70" s="4">
-        <f t="shared" si="36"/>
-        <v>200</v>
-      </c>
-      <c r="AI70" s="4">
-        <f t="shared" si="37"/>
-        <v>198</v>
-      </c>
-      <c r="AJ70" s="4">
-        <f t="shared" si="38"/>
-        <v>196</v>
-      </c>
-      <c r="AK70" s="4">
-        <f t="shared" si="39"/>
-        <v>194</v>
-      </c>
-      <c r="AL70" s="4">
-        <f t="shared" si="40"/>
-        <v>192</v>
-      </c>
-      <c r="AM70" s="4">
-        <f t="shared" si="41"/>
-        <v>190</v>
-      </c>
-      <c r="AN70" s="4">
-        <f t="shared" si="42"/>
-        <v>188</v>
-      </c>
-      <c r="AO70" s="4">
-        <f t="shared" si="12"/>
-        <v>186</v>
-      </c>
-      <c r="AP70" s="4">
-        <f t="shared" si="13"/>
-        <v>184</v>
-      </c>
-      <c r="AQ70" s="4">
-        <f t="shared" si="14"/>
-        <v>182</v>
-      </c>
-      <c r="AR70" s="4">
-        <f t="shared" si="15"/>
-        <v>180</v>
-      </c>
-      <c r="AS70" s="4">
-        <f t="shared" si="16"/>
-        <v>178</v>
-      </c>
-      <c r="AT70" s="4">
-        <f t="shared" si="17"/>
-        <v>176</v>
-      </c>
-      <c r="AU70" s="4">
-        <f t="shared" si="18"/>
-        <v>174</v>
-      </c>
-      <c r="AV70" s="4">
-        <f t="shared" si="19"/>
-        <v>172</v>
-      </c>
-      <c r="AW70" s="4">
-        <f t="shared" si="20"/>
-        <v>170</v>
-      </c>
-      <c r="AX70" s="4">
-        <f t="shared" si="21"/>
-        <v>168</v>
-      </c>
-      <c r="AY70" s="4">
-        <f t="shared" si="22"/>
-        <v>166</v>
-      </c>
-      <c r="AZ70" s="4">
-        <f t="shared" si="23"/>
-        <v>164</v>
+        <f>_xlfn.CHISQ.TEST(W63:X64, W67:X68)</f>
+        <v>9.4434252991487028E-2</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA70" s="25">
+        <f>2*(1-_xlfn.NORM.S.DIST(AA69,TRUE))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
-        <v>80</v>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C71" s="4">
         <v>223</v>
       </c>
-      <c r="W71" s="4">
-        <f t="shared" si="24"/>
-        <v>670</v>
-      </c>
-      <c r="X71" s="4">
-        <f t="shared" si="26"/>
-        <v>219</v>
-      </c>
-      <c r="Y71" s="4">
-        <f t="shared" si="27"/>
-        <v>217</v>
-      </c>
-      <c r="Z71" s="4">
-        <f t="shared" si="28"/>
-        <v>215</v>
-      </c>
-      <c r="AA71" s="4">
-        <f t="shared" si="29"/>
-        <v>213</v>
-      </c>
-      <c r="AB71" s="4">
-        <f t="shared" si="30"/>
-        <v>211</v>
-      </c>
-      <c r="AC71" s="4">
-        <f t="shared" si="31"/>
-        <v>209</v>
-      </c>
-      <c r="AD71" s="4">
-        <f t="shared" si="32"/>
-        <v>207</v>
-      </c>
-      <c r="AE71" s="4">
-        <f t="shared" si="33"/>
-        <v>205</v>
-      </c>
-      <c r="AF71" s="4">
-        <f t="shared" si="34"/>
-        <v>203</v>
-      </c>
-      <c r="AG71" s="4">
-        <f t="shared" si="35"/>
-        <v>201</v>
-      </c>
-      <c r="AH71" s="4">
-        <f t="shared" si="36"/>
-        <v>199</v>
-      </c>
-      <c r="AI71" s="4">
-        <f t="shared" si="37"/>
-        <v>197</v>
-      </c>
-      <c r="AJ71" s="4">
-        <f t="shared" si="38"/>
-        <v>195</v>
-      </c>
-      <c r="AK71" s="4">
-        <f t="shared" si="39"/>
-        <v>193</v>
-      </c>
-      <c r="AL71" s="4">
-        <f t="shared" si="40"/>
-        <v>191</v>
-      </c>
-      <c r="AM71" s="4">
-        <f t="shared" si="41"/>
-        <v>189</v>
-      </c>
-      <c r="AN71" s="4">
-        <f t="shared" si="42"/>
-        <v>187</v>
-      </c>
-      <c r="AO71" s="4">
-        <f t="shared" si="12"/>
-        <v>185</v>
-      </c>
-      <c r="AP71" s="4">
-        <f t="shared" si="13"/>
-        <v>183</v>
-      </c>
-      <c r="AQ71" s="4">
-        <f t="shared" si="14"/>
-        <v>181</v>
-      </c>
-      <c r="AR71" s="4">
-        <f t="shared" si="15"/>
-        <v>179</v>
-      </c>
-      <c r="AS71" s="4">
-        <f t="shared" si="16"/>
-        <v>177</v>
-      </c>
-      <c r="AT71" s="4">
-        <f t="shared" si="17"/>
-        <v>175</v>
-      </c>
-      <c r="AU71" s="4">
-        <f t="shared" si="18"/>
-        <v>173</v>
-      </c>
-      <c r="AV71" s="4">
-        <f t="shared" si="19"/>
-        <v>171</v>
-      </c>
-      <c r="AW71" s="4">
-        <f t="shared" si="20"/>
-        <v>169</v>
-      </c>
-      <c r="AX71" s="4">
-        <f t="shared" si="21"/>
-        <v>167</v>
-      </c>
-      <c r="AY71" s="4">
-        <f t="shared" si="22"/>
-        <v>165</v>
-      </c>
-      <c r="AZ71" s="4">
-        <f t="shared" si="23"/>
-        <v>163</v>
-      </c>
     </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4">
         <v>217</v>
@@ -13497,148 +14952,28 @@
       <c r="P72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q72" s="18" t="s">
+      <c r="Q72" s="17" t="s">
         <v>1</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U72" s="18" t="s">
+      <c r="U72" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="W72" s="4">
-        <f t="shared" si="24"/>
-        <v>660</v>
-      </c>
-      <c r="X72" s="4">
-        <f t="shared" si="26"/>
-        <v>218</v>
-      </c>
-      <c r="Y72" s="4">
-        <f t="shared" si="27"/>
-        <v>216</v>
-      </c>
-      <c r="Z72" s="4">
-        <f t="shared" si="28"/>
-        <v>214</v>
-      </c>
-      <c r="AA72" s="4">
-        <f t="shared" si="29"/>
-        <v>212</v>
-      </c>
-      <c r="AB72" s="4">
-        <f t="shared" si="30"/>
-        <v>210</v>
-      </c>
-      <c r="AC72" s="4">
-        <f t="shared" si="31"/>
-        <v>208</v>
-      </c>
-      <c r="AD72" s="4">
-        <f t="shared" si="32"/>
-        <v>206</v>
-      </c>
-      <c r="AE72" s="4">
-        <f t="shared" si="33"/>
-        <v>204</v>
-      </c>
-      <c r="AF72" s="4">
-        <f t="shared" si="34"/>
-        <v>202</v>
-      </c>
-      <c r="AG72" s="4">
-        <f t="shared" si="35"/>
-        <v>200</v>
-      </c>
-      <c r="AH72" s="4">
-        <f t="shared" si="36"/>
-        <v>198</v>
-      </c>
-      <c r="AI72" s="4">
-        <f t="shared" si="37"/>
-        <v>196</v>
-      </c>
-      <c r="AJ72" s="4">
-        <f t="shared" si="38"/>
-        <v>194</v>
-      </c>
-      <c r="AK72" s="4">
-        <f t="shared" si="39"/>
-        <v>192</v>
-      </c>
-      <c r="AL72" s="4">
-        <f t="shared" si="40"/>
-        <v>190</v>
-      </c>
-      <c r="AM72" s="4">
-        <f t="shared" si="41"/>
-        <v>188</v>
-      </c>
-      <c r="AN72" s="4">
-        <f t="shared" si="42"/>
-        <v>186</v>
-      </c>
-      <c r="AO72" s="4">
-        <f t="shared" si="12"/>
-        <v>184</v>
-      </c>
-      <c r="AP72" s="4">
-        <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="AQ72" s="4">
-        <f t="shared" si="14"/>
-        <v>180</v>
-      </c>
-      <c r="AR72" s="4">
-        <f t="shared" si="15"/>
-        <v>178</v>
-      </c>
-      <c r="AS72" s="4">
-        <f t="shared" si="16"/>
-        <v>176</v>
-      </c>
-      <c r="AT72" s="4">
-        <f t="shared" si="17"/>
-        <v>174</v>
-      </c>
-      <c r="AU72" s="4">
-        <f t="shared" si="18"/>
-        <v>172</v>
-      </c>
-      <c r="AV72" s="4">
-        <f t="shared" si="19"/>
-        <v>170</v>
-      </c>
-      <c r="AW72" s="4">
-        <f t="shared" si="20"/>
-        <v>168</v>
-      </c>
-      <c r="AX72" s="4">
-        <f t="shared" si="21"/>
-        <v>166</v>
-      </c>
-      <c r="AY72" s="4">
-        <f t="shared" si="22"/>
-        <v>164</v>
-      </c>
-      <c r="AZ72" s="4">
-        <f t="shared" si="23"/>
-        <v>162</v>
-      </c>
     </row>
-    <row r="73" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" s="4">
         <v>218</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P73" s="6">
         <f>_xlfn.NORM.DIST(228,P77,P78,TRUE)-_xlfn.NORM.DIST(215,P77,P78,TRUE)</f>
@@ -13649,7 +14984,7 @@
         <v>1.0788303936862476E-2</v>
       </c>
       <c r="S73" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T73" s="6">
         <f>_xlfn.NORM.DIST(228,T77,T78,TRUE)-_xlfn.NORM.DIST(215,T77,T78,TRUE)</f>
@@ -13659,136 +14994,16 @@
         <f>_xlfn.NORM.DIST(228,U77,U78,TRUE)-_xlfn.NORM.DIST(215,U77,U78,TRUE)</f>
         <v>1.0788303936862476E-2</v>
       </c>
-      <c r="W73" s="4">
-        <f t="shared" si="24"/>
-        <v>650</v>
-      </c>
-      <c r="X73" s="4">
-        <f t="shared" si="26"/>
-        <v>217</v>
-      </c>
-      <c r="Y73" s="4">
-        <f t="shared" si="27"/>
-        <v>215</v>
-      </c>
-      <c r="Z73" s="4">
-        <f t="shared" si="28"/>
-        <v>213</v>
-      </c>
-      <c r="AA73" s="4">
-        <f t="shared" si="29"/>
-        <v>211</v>
-      </c>
-      <c r="AB73" s="4">
-        <f t="shared" si="30"/>
-        <v>209</v>
-      </c>
-      <c r="AC73" s="4">
-        <f t="shared" si="31"/>
-        <v>207</v>
-      </c>
-      <c r="AD73" s="4">
-        <f t="shared" si="32"/>
-        <v>205</v>
-      </c>
-      <c r="AE73" s="4">
-        <f t="shared" si="33"/>
-        <v>203</v>
-      </c>
-      <c r="AF73" s="4">
-        <f t="shared" si="34"/>
-        <v>201</v>
-      </c>
-      <c r="AG73" s="4">
-        <f t="shared" si="35"/>
-        <v>199</v>
-      </c>
-      <c r="AH73" s="4">
-        <f t="shared" si="36"/>
-        <v>197</v>
-      </c>
-      <c r="AI73" s="4">
-        <f t="shared" si="37"/>
-        <v>195</v>
-      </c>
-      <c r="AJ73" s="4">
-        <f t="shared" si="38"/>
-        <v>193</v>
-      </c>
-      <c r="AK73" s="4">
-        <f t="shared" si="39"/>
-        <v>191</v>
-      </c>
-      <c r="AL73" s="4">
-        <f t="shared" si="40"/>
-        <v>189</v>
-      </c>
-      <c r="AM73" s="4">
-        <f t="shared" si="41"/>
-        <v>187</v>
-      </c>
-      <c r="AN73" s="4">
-        <f t="shared" si="42"/>
-        <v>185</v>
-      </c>
-      <c r="AO73" s="4">
-        <f t="shared" si="12"/>
-        <v>183</v>
-      </c>
-      <c r="AP73" s="4">
-        <f t="shared" si="13"/>
-        <v>181</v>
-      </c>
-      <c r="AQ73" s="4">
-        <f t="shared" si="14"/>
-        <v>179</v>
-      </c>
-      <c r="AR73" s="4">
-        <f t="shared" si="15"/>
-        <v>177</v>
-      </c>
-      <c r="AS73" s="4">
-        <f t="shared" si="16"/>
-        <v>175</v>
-      </c>
-      <c r="AT73" s="4">
-        <f t="shared" si="17"/>
-        <v>173</v>
-      </c>
-      <c r="AU73" s="4">
-        <f t="shared" si="18"/>
-        <v>171</v>
-      </c>
-      <c r="AV73" s="4">
-        <f t="shared" si="19"/>
-        <v>169</v>
-      </c>
-      <c r="AW73" s="4">
-        <f t="shared" si="20"/>
-        <v>167</v>
-      </c>
-      <c r="AX73" s="4">
-        <f t="shared" si="21"/>
-        <v>165</v>
-      </c>
-      <c r="AY73" s="4">
-        <f t="shared" si="22"/>
-        <v>163</v>
-      </c>
-      <c r="AZ73" s="4">
-        <f t="shared" si="23"/>
-        <v>161</v>
-      </c>
     </row>
-    <row r="74" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="4">
         <v>217</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P74" s="6">
         <f>_xlfn.NORM.DIST(215,P77,P78,TRUE)-_xlfn.NORM.DIST(208,P77,P78,TRUE)</f>
@@ -13799,7 +15014,7 @@
         <v>1.1250376271177309E-2</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T74" s="6">
         <f>_xlfn.NORM.DIST(215,T77,T78,TRUE)-_xlfn.NORM.DIST(208,T77,T78,TRUE)</f>
@@ -13809,136 +15024,16 @@
         <f>_xlfn.NORM.DIST(215,U77,U78,TRUE)-_xlfn.NORM.DIST(208,U77,U78,TRUE)</f>
         <v>1.1250376271177309E-2</v>
       </c>
-      <c r="W74" s="4">
-        <f t="shared" si="24"/>
-        <v>640</v>
-      </c>
-      <c r="X74" s="4">
-        <f t="shared" si="26"/>
-        <v>216</v>
-      </c>
-      <c r="Y74" s="4">
-        <f t="shared" si="27"/>
-        <v>214</v>
-      </c>
-      <c r="Z74" s="4">
-        <f t="shared" si="28"/>
-        <v>212</v>
-      </c>
-      <c r="AA74" s="4">
-        <f t="shared" si="29"/>
-        <v>210</v>
-      </c>
-      <c r="AB74" s="4">
-        <f t="shared" si="30"/>
-        <v>208</v>
-      </c>
-      <c r="AC74" s="4">
-        <f t="shared" si="31"/>
-        <v>206</v>
-      </c>
-      <c r="AD74" s="4">
-        <f t="shared" si="32"/>
-        <v>204</v>
-      </c>
-      <c r="AE74" s="4">
-        <f t="shared" si="33"/>
-        <v>202</v>
-      </c>
-      <c r="AF74" s="4">
-        <f t="shared" si="34"/>
-        <v>200</v>
-      </c>
-      <c r="AG74" s="4">
-        <f t="shared" si="35"/>
-        <v>198</v>
-      </c>
-      <c r="AH74" s="4">
-        <f t="shared" si="36"/>
-        <v>196</v>
-      </c>
-      <c r="AI74" s="4">
-        <f t="shared" si="37"/>
-        <v>194</v>
-      </c>
-      <c r="AJ74" s="4">
-        <f t="shared" si="38"/>
-        <v>192</v>
-      </c>
-      <c r="AK74" s="4">
-        <f t="shared" si="39"/>
-        <v>190</v>
-      </c>
-      <c r="AL74" s="4">
-        <f t="shared" si="40"/>
-        <v>188</v>
-      </c>
-      <c r="AM74" s="4">
-        <f t="shared" si="41"/>
-        <v>186</v>
-      </c>
-      <c r="AN74" s="4">
-        <f t="shared" si="42"/>
-        <v>184</v>
-      </c>
-      <c r="AO74" s="4">
-        <f t="shared" si="12"/>
-        <v>182</v>
-      </c>
-      <c r="AP74" s="4">
-        <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="AQ74" s="4">
-        <f t="shared" si="14"/>
-        <v>178</v>
-      </c>
-      <c r="AR74" s="4">
-        <f t="shared" si="15"/>
-        <v>176</v>
-      </c>
-      <c r="AS74" s="4">
-        <f t="shared" si="16"/>
-        <v>174</v>
-      </c>
-      <c r="AT74" s="4">
-        <f t="shared" si="17"/>
-        <v>172</v>
-      </c>
-      <c r="AU74" s="4">
-        <f t="shared" si="18"/>
-        <v>170</v>
-      </c>
-      <c r="AV74" s="4">
-        <f t="shared" si="19"/>
-        <v>168</v>
-      </c>
-      <c r="AW74" s="4">
-        <f t="shared" si="20"/>
-        <v>166</v>
-      </c>
-      <c r="AX74" s="4">
-        <f t="shared" si="21"/>
-        <v>164</v>
-      </c>
-      <c r="AY74" s="4">
-        <f t="shared" si="22"/>
-        <v>162</v>
-      </c>
-      <c r="AZ74" s="4">
-        <f t="shared" si="23"/>
-        <v>160</v>
-      </c>
     </row>
-    <row r="75" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="4">
         <v>213</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P75" s="6">
         <f>_xlfn.NORM.DIST(207,P77,P78,TRUE)-_xlfn.NORM.DIST(200,P77,P78,TRUE)</f>
@@ -13949,7 +15044,7 @@
         <v>1.8101170872604211E-2</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T75" s="6">
         <f>_xlfn.NORM.DIST(208,T77,T78,TRUE)</f>
@@ -13959,130 +15054,10 @@
         <f>_xlfn.NORM.DIST(208,U77,U78,TRUE)</f>
         <v>0.9725172940698551</v>
       </c>
-      <c r="W75" s="4">
-        <f t="shared" si="24"/>
-        <v>630</v>
-      </c>
-      <c r="X75" s="4">
-        <f t="shared" si="26"/>
-        <v>215</v>
-      </c>
-      <c r="Y75" s="4">
-        <f t="shared" si="27"/>
-        <v>213</v>
-      </c>
-      <c r="Z75" s="4">
-        <f t="shared" si="28"/>
-        <v>211</v>
-      </c>
-      <c r="AA75" s="4">
-        <f t="shared" si="29"/>
-        <v>209</v>
-      </c>
-      <c r="AB75" s="4">
-        <f t="shared" si="30"/>
-        <v>207</v>
-      </c>
-      <c r="AC75" s="4">
-        <f t="shared" si="31"/>
-        <v>205</v>
-      </c>
-      <c r="AD75" s="4">
-        <f t="shared" si="32"/>
-        <v>203</v>
-      </c>
-      <c r="AE75" s="4">
-        <f t="shared" si="33"/>
-        <v>201</v>
-      </c>
-      <c r="AF75" s="4">
-        <f t="shared" si="34"/>
-        <v>199</v>
-      </c>
-      <c r="AG75" s="4">
-        <f t="shared" si="35"/>
-        <v>197</v>
-      </c>
-      <c r="AH75" s="4">
-        <f t="shared" si="36"/>
-        <v>195</v>
-      </c>
-      <c r="AI75" s="4">
-        <f t="shared" si="37"/>
-        <v>193</v>
-      </c>
-      <c r="AJ75" s="4">
-        <f t="shared" si="38"/>
-        <v>191</v>
-      </c>
-      <c r="AK75" s="4">
-        <f t="shared" si="39"/>
-        <v>189</v>
-      </c>
-      <c r="AL75" s="4">
-        <f t="shared" si="40"/>
-        <v>187</v>
-      </c>
-      <c r="AM75" s="4">
-        <f t="shared" si="41"/>
-        <v>185</v>
-      </c>
-      <c r="AN75" s="4">
-        <f t="shared" si="42"/>
-        <v>183</v>
-      </c>
-      <c r="AO75" s="4">
-        <f t="shared" si="12"/>
-        <v>181</v>
-      </c>
-      <c r="AP75" s="4">
-        <f t="shared" si="13"/>
-        <v>179</v>
-      </c>
-      <c r="AQ75" s="4">
-        <f t="shared" si="14"/>
-        <v>177</v>
-      </c>
-      <c r="AR75" s="4">
-        <f t="shared" si="15"/>
-        <v>175</v>
-      </c>
-      <c r="AS75" s="4">
-        <f t="shared" si="16"/>
-        <v>173</v>
-      </c>
-      <c r="AT75" s="4">
-        <f t="shared" si="17"/>
-        <v>171</v>
-      </c>
-      <c r="AU75" s="4">
-        <f t="shared" si="18"/>
-        <v>169</v>
-      </c>
-      <c r="AV75" s="4">
-        <f t="shared" si="19"/>
-        <v>167</v>
-      </c>
-      <c r="AW75" s="4">
-        <f t="shared" si="20"/>
-        <v>165</v>
-      </c>
-      <c r="AX75" s="4">
-        <f t="shared" si="21"/>
-        <v>163</v>
-      </c>
-      <c r="AY75" s="4">
-        <f t="shared" si="22"/>
-        <v>161</v>
-      </c>
-      <c r="AZ75" s="4">
-        <f t="shared" si="23"/>
-        <v>159</v>
-      </c>
     </row>
-    <row r="76" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C76" s="4">
         <v>220</v>
@@ -14100,130 +15075,22 @@
       </c>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
-      <c r="W76" s="4">
-        <f t="shared" si="24"/>
-        <v>620</v>
-      </c>
-      <c r="X76" s="4">
-        <f t="shared" si="26"/>
-        <v>214</v>
-      </c>
-      <c r="Y76" s="4">
-        <f t="shared" si="27"/>
-        <v>212</v>
-      </c>
-      <c r="Z76" s="4">
-        <f t="shared" si="28"/>
-        <v>210</v>
-      </c>
-      <c r="AA76" s="4">
-        <f t="shared" si="29"/>
-        <v>208</v>
-      </c>
-      <c r="AB76" s="4">
-        <f t="shared" si="30"/>
-        <v>206</v>
-      </c>
-      <c r="AC76" s="4">
-        <f t="shared" si="31"/>
-        <v>204</v>
-      </c>
-      <c r="AD76" s="4">
-        <f t="shared" si="32"/>
-        <v>202</v>
-      </c>
-      <c r="AE76" s="4">
-        <f t="shared" si="33"/>
-        <v>200</v>
-      </c>
-      <c r="AF76" s="4">
-        <f t="shared" si="34"/>
-        <v>198</v>
-      </c>
-      <c r="AG76" s="4">
-        <f t="shared" si="35"/>
-        <v>196</v>
-      </c>
-      <c r="AH76" s="4">
-        <f t="shared" si="36"/>
-        <v>194</v>
-      </c>
-      <c r="AI76" s="4">
-        <f t="shared" si="37"/>
-        <v>192</v>
-      </c>
-      <c r="AJ76" s="4">
-        <f t="shared" si="38"/>
-        <v>190</v>
-      </c>
-      <c r="AK76" s="4">
-        <f t="shared" si="39"/>
-        <v>188</v>
-      </c>
-      <c r="AL76" s="4">
-        <f t="shared" si="40"/>
-        <v>186</v>
-      </c>
-      <c r="AM76" s="4">
-        <f t="shared" si="41"/>
-        <v>184</v>
-      </c>
-      <c r="AN76" s="4">
-        <f t="shared" si="42"/>
-        <v>182</v>
-      </c>
-      <c r="AO76" s="4">
-        <f t="shared" si="12"/>
-        <v>180</v>
-      </c>
-      <c r="AP76" s="4">
-        <f t="shared" si="13"/>
-        <v>178</v>
-      </c>
-      <c r="AQ76" s="4">
-        <f t="shared" si="14"/>
-        <v>176</v>
-      </c>
-      <c r="AR76" s="4">
-        <f t="shared" si="15"/>
-        <v>174</v>
-      </c>
-      <c r="AS76" s="4">
-        <f t="shared" si="16"/>
-        <v>172</v>
-      </c>
-      <c r="AT76" s="4">
-        <f t="shared" si="17"/>
-        <v>170</v>
-      </c>
-      <c r="AU76" s="4">
-        <f t="shared" si="18"/>
-        <v>168</v>
-      </c>
-      <c r="AV76" s="4">
-        <f t="shared" si="19"/>
-        <v>166</v>
-      </c>
-      <c r="AW76" s="4">
-        <f t="shared" si="20"/>
-        <v>164</v>
-      </c>
-      <c r="AX76" s="4">
-        <f t="shared" si="21"/>
-        <v>162</v>
-      </c>
-      <c r="AY76" s="4">
-        <f t="shared" si="22"/>
-        <v>160</v>
-      </c>
-      <c r="AZ76" s="4">
-        <f t="shared" si="23"/>
-        <v>158</v>
-      </c>
+      <c r="V76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
     </row>
-    <row r="77" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" s="4">
         <v>217</v>
@@ -14235,7 +15102,7 @@
         <f>(2*P59+P69)/10</f>
         <v>149.72499999999999</v>
       </c>
-      <c r="Q77" s="18">
+      <c r="Q77" s="17">
         <f>(2*R59+R69)/10</f>
         <v>146.79499999999999</v>
       </c>
@@ -14248,130 +15115,31 @@
       <c r="U77" s="4">
         <v>146.79499999999999</v>
       </c>
-      <c r="W77" s="4">
-        <f t="shared" si="24"/>
-        <v>610</v>
-      </c>
-      <c r="X77" s="4">
-        <f t="shared" si="26"/>
-        <v>213</v>
-      </c>
-      <c r="Y77" s="4">
-        <f t="shared" si="27"/>
-        <v>211</v>
-      </c>
-      <c r="Z77" s="4">
-        <f t="shared" si="28"/>
-        <v>209</v>
+      <c r="V77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W77" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="X77" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="AA77" s="4">
-        <f t="shared" si="29"/>
-        <v>207</v>
+        <f>X77*B15/(X77*B15+W77*B11)</f>
+        <v>0.48347679741966537</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="30"/>
-        <v>205</v>
-      </c>
-      <c r="AC77" s="4">
-        <f t="shared" si="31"/>
-        <v>203</v>
-      </c>
-      <c r="AD77" s="4">
-        <f t="shared" si="32"/>
-        <v>201</v>
-      </c>
-      <c r="AE77" s="4">
-        <f t="shared" si="33"/>
-        <v>199</v>
-      </c>
-      <c r="AF77" s="4">
-        <f t="shared" si="34"/>
-        <v>197</v>
-      </c>
-      <c r="AG77" s="4">
-        <f t="shared" si="35"/>
-        <v>195</v>
-      </c>
-      <c r="AH77" s="4">
-        <f t="shared" si="36"/>
-        <v>193</v>
-      </c>
-      <c r="AI77" s="4">
-        <f t="shared" si="37"/>
-        <v>191</v>
-      </c>
-      <c r="AJ77" s="4">
-        <f t="shared" si="38"/>
-        <v>189</v>
-      </c>
-      <c r="AK77" s="4">
-        <f t="shared" si="39"/>
-        <v>187</v>
-      </c>
-      <c r="AL77" s="4">
-        <f t="shared" si="40"/>
-        <v>185</v>
-      </c>
-      <c r="AM77" s="4">
-        <f t="shared" si="41"/>
-        <v>183</v>
-      </c>
-      <c r="AN77" s="4">
-        <f t="shared" si="42"/>
-        <v>181</v>
-      </c>
-      <c r="AO77" s="4">
-        <f t="shared" si="12"/>
-        <v>179</v>
-      </c>
-      <c r="AP77" s="4">
-        <f t="shared" si="13"/>
-        <v>177</v>
-      </c>
-      <c r="AQ77" s="4">
-        <f t="shared" si="14"/>
-        <v>175</v>
-      </c>
-      <c r="AR77" s="4">
-        <f t="shared" si="15"/>
-        <v>173</v>
-      </c>
-      <c r="AS77" s="4">
-        <f t="shared" si="16"/>
-        <v>171</v>
-      </c>
-      <c r="AT77" s="4">
-        <f t="shared" si="17"/>
-        <v>169</v>
-      </c>
-      <c r="AU77" s="4">
-        <f t="shared" si="18"/>
-        <v>167</v>
-      </c>
-      <c r="AV77" s="4">
-        <f t="shared" si="19"/>
-        <v>165</v>
-      </c>
-      <c r="AW77" s="4">
-        <f t="shared" si="20"/>
-        <v>163</v>
-      </c>
-      <c r="AX77" s="4">
-        <f t="shared" si="21"/>
-        <v>161</v>
-      </c>
-      <c r="AY77" s="4">
-        <f t="shared" si="22"/>
-        <v>159</v>
-      </c>
-      <c r="AZ77" s="4">
-        <f t="shared" si="23"/>
-        <v>157</v>
+        <f>1-AA77</f>
+        <v>0.51652320258033457</v>
       </c>
     </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C78" s="4">
         <v>212</v>
@@ -14383,7 +15151,7 @@
         <f>SQRT(4*P60^2+P70^2+4*P87*P60*P70)/10</f>
         <v>30.108704043178953</v>
       </c>
-      <c r="Q78" s="18">
+      <c r="Q78" s="17">
         <f>SQRT(4*R60^2+R70^2+4*P87*R60*R70)/10</f>
         <v>31.891730601862189</v>
       </c>
@@ -14396,407 +15164,91 @@
       <c r="U78" s="4">
         <v>31.891730601862189</v>
       </c>
-      <c r="W78" s="4">
-        <f t="shared" si="24"/>
-        <v>600</v>
-      </c>
-      <c r="X78" s="4">
-        <f t="shared" si="26"/>
-        <v>212</v>
-      </c>
-      <c r="Y78" s="4">
-        <f t="shared" si="27"/>
-        <v>210</v>
-      </c>
-      <c r="Z78" s="4">
-        <f t="shared" si="28"/>
-        <v>208</v>
-      </c>
-      <c r="AA78" s="4">
-        <f t="shared" si="29"/>
-        <v>206</v>
-      </c>
-      <c r="AB78" s="4">
-        <f t="shared" si="30"/>
-        <v>204</v>
-      </c>
-      <c r="AC78" s="4">
-        <f t="shared" si="31"/>
-        <v>202</v>
-      </c>
-      <c r="AD78" s="4">
-        <f t="shared" si="32"/>
-        <v>200</v>
-      </c>
-      <c r="AE78" s="4">
-        <f t="shared" si="33"/>
-        <v>198</v>
-      </c>
-      <c r="AF78" s="4">
-        <f t="shared" si="34"/>
-        <v>196</v>
-      </c>
-      <c r="AG78" s="4">
-        <f t="shared" si="35"/>
-        <v>194</v>
-      </c>
-      <c r="AH78" s="4">
-        <f t="shared" si="36"/>
-        <v>192</v>
-      </c>
-      <c r="AI78" s="4">
-        <f t="shared" si="37"/>
-        <v>190</v>
-      </c>
-      <c r="AJ78" s="4">
-        <f t="shared" si="38"/>
-        <v>188</v>
-      </c>
-      <c r="AK78" s="4">
-        <f t="shared" si="39"/>
-        <v>186</v>
-      </c>
-      <c r="AL78" s="4">
-        <f t="shared" si="40"/>
-        <v>184</v>
-      </c>
-      <c r="AM78" s="4">
-        <f t="shared" si="41"/>
-        <v>182</v>
-      </c>
-      <c r="AN78" s="4">
-        <f t="shared" si="42"/>
-        <v>180</v>
-      </c>
-      <c r="AO78" s="4">
-        <f t="shared" si="12"/>
-        <v>178</v>
-      </c>
-      <c r="AP78" s="4">
-        <f t="shared" si="13"/>
-        <v>176</v>
-      </c>
-      <c r="AQ78" s="4">
-        <f t="shared" si="14"/>
-        <v>174</v>
-      </c>
-      <c r="AR78" s="4">
-        <f t="shared" si="15"/>
-        <v>172</v>
-      </c>
-      <c r="AS78" s="4">
-        <f t="shared" si="16"/>
-        <v>170</v>
-      </c>
-      <c r="AT78" s="4">
-        <f t="shared" si="17"/>
-        <v>168</v>
-      </c>
-      <c r="AU78" s="4">
-        <f t="shared" si="18"/>
-        <v>166</v>
-      </c>
-      <c r="AV78" s="4">
-        <f t="shared" si="19"/>
-        <v>164</v>
-      </c>
-      <c r="AW78" s="4">
-        <f t="shared" si="20"/>
-        <v>162</v>
-      </c>
-      <c r="AX78" s="4">
-        <f t="shared" si="21"/>
-        <v>160</v>
-      </c>
-      <c r="AY78" s="4">
-        <f t="shared" si="22"/>
-        <v>158</v>
-      </c>
-      <c r="AZ78" s="4">
-        <f t="shared" si="23"/>
-        <v>156</v>
+      <c r="V78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W78" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X78" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA78" s="7">
+        <f>(W77*B11+X77*B15)</f>
+        <v>37148.67</v>
       </c>
     </row>
-    <row r="79" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" s="4">
         <v>215</v>
       </c>
-      <c r="W79" s="4">
-        <f t="shared" si="24"/>
-        <v>590</v>
-      </c>
-      <c r="X79" s="4">
-        <f t="shared" si="26"/>
-        <v>211</v>
-      </c>
-      <c r="Y79" s="4">
-        <f t="shared" si="27"/>
-        <v>209</v>
-      </c>
-      <c r="Z79" s="4">
-        <f t="shared" si="28"/>
-        <v>207</v>
+      <c r="Z79" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="AA79" s="4">
-        <f t="shared" si="29"/>
-        <v>205</v>
+        <f>X81*B15/(X81*B15+W81*B11)</f>
+        <v>0.6479739593663878</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="30"/>
-        <v>203</v>
-      </c>
-      <c r="AC79" s="4">
-        <f t="shared" si="31"/>
-        <v>201</v>
-      </c>
-      <c r="AD79" s="4">
-        <f t="shared" si="32"/>
-        <v>199</v>
-      </c>
-      <c r="AE79" s="4">
-        <f t="shared" si="33"/>
-        <v>197</v>
-      </c>
-      <c r="AF79" s="4">
-        <f t="shared" si="34"/>
-        <v>195</v>
-      </c>
-      <c r="AG79" s="4">
-        <f t="shared" si="35"/>
-        <v>193</v>
-      </c>
-      <c r="AH79" s="4">
-        <f t="shared" si="36"/>
-        <v>191</v>
-      </c>
-      <c r="AI79" s="4">
-        <f t="shared" si="37"/>
-        <v>189</v>
-      </c>
-      <c r="AJ79" s="4">
-        <f t="shared" si="38"/>
-        <v>187</v>
-      </c>
-      <c r="AK79" s="4">
-        <f t="shared" si="39"/>
-        <v>185</v>
-      </c>
-      <c r="AL79" s="4">
-        <f t="shared" si="40"/>
-        <v>183</v>
-      </c>
-      <c r="AM79" s="4">
-        <f t="shared" si="41"/>
-        <v>181</v>
-      </c>
-      <c r="AN79" s="4">
-        <f t="shared" si="42"/>
-        <v>179</v>
-      </c>
-      <c r="AO79" s="4">
-        <f t="shared" si="12"/>
-        <v>177</v>
-      </c>
-      <c r="AP79" s="4">
-        <f t="shared" si="13"/>
-        <v>175</v>
-      </c>
-      <c r="AQ79" s="4">
-        <f t="shared" si="14"/>
-        <v>173</v>
-      </c>
-      <c r="AR79" s="4">
-        <f t="shared" si="15"/>
-        <v>171</v>
-      </c>
-      <c r="AS79" s="4">
-        <f t="shared" si="16"/>
-        <v>169</v>
-      </c>
-      <c r="AT79" s="4">
-        <f t="shared" si="17"/>
-        <v>167</v>
-      </c>
-      <c r="AU79" s="4">
-        <f t="shared" si="18"/>
-        <v>165</v>
-      </c>
-      <c r="AV79" s="4">
-        <f t="shared" si="19"/>
-        <v>163</v>
-      </c>
-      <c r="AW79" s="4">
-        <f t="shared" si="20"/>
-        <v>161</v>
-      </c>
-      <c r="AX79" s="4">
-        <f t="shared" si="21"/>
-        <v>159</v>
-      </c>
-      <c r="AY79" s="4">
-        <f t="shared" si="22"/>
-        <v>157</v>
-      </c>
-      <c r="AZ79" s="4">
-        <f t="shared" si="23"/>
-        <v>155</v>
+        <f>1-AA79</f>
+        <v>0.3520260406336122</v>
       </c>
     </row>
-    <row r="80" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C80" s="4">
         <v>213</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P80" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R80" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q80" s="4" t="s">
+      <c r="S80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R80" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S80" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="W80" s="4">
-        <f t="shared" si="24"/>
-        <v>580</v>
-      </c>
-      <c r="X80" s="4">
-        <f t="shared" si="26"/>
-        <v>210</v>
-      </c>
-      <c r="Y80" s="4">
-        <f t="shared" si="27"/>
-        <v>208</v>
-      </c>
-      <c r="Z80" s="4">
-        <f t="shared" si="28"/>
-        <v>206</v>
+      <c r="V80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z80" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="29"/>
-        <v>204</v>
-      </c>
-      <c r="AB80" s="4">
-        <f t="shared" si="30"/>
-        <v>202</v>
-      </c>
-      <c r="AC80" s="4">
-        <f t="shared" si="31"/>
-        <v>200</v>
-      </c>
-      <c r="AD80" s="4">
-        <f t="shared" si="32"/>
-        <v>198</v>
-      </c>
-      <c r="AE80" s="4">
-        <f t="shared" si="33"/>
-        <v>196</v>
-      </c>
-      <c r="AF80" s="4">
-        <f t="shared" si="34"/>
-        <v>194</v>
-      </c>
-      <c r="AG80" s="4">
-        <f t="shared" si="35"/>
-        <v>192</v>
-      </c>
-      <c r="AH80" s="4">
-        <f t="shared" si="36"/>
-        <v>190</v>
-      </c>
-      <c r="AI80" s="4">
-        <f t="shared" si="37"/>
-        <v>188</v>
-      </c>
-      <c r="AJ80" s="4">
-        <f t="shared" si="38"/>
-        <v>186</v>
-      </c>
-      <c r="AK80" s="4">
-        <f t="shared" si="39"/>
-        <v>184</v>
-      </c>
-      <c r="AL80" s="4">
-        <f t="shared" si="40"/>
-        <v>182</v>
-      </c>
-      <c r="AM80" s="4">
-        <f t="shared" si="41"/>
-        <v>180</v>
-      </c>
-      <c r="AN80" s="4">
-        <f t="shared" si="42"/>
-        <v>178</v>
-      </c>
-      <c r="AO80" s="4">
-        <f t="shared" si="12"/>
-        <v>176</v>
-      </c>
-      <c r="AP80" s="4">
-        <f t="shared" si="13"/>
-        <v>174</v>
-      </c>
-      <c r="AQ80" s="4">
-        <f t="shared" si="14"/>
-        <v>172</v>
-      </c>
-      <c r="AR80" s="4">
-        <f t="shared" si="15"/>
-        <v>170</v>
-      </c>
-      <c r="AS80" s="4">
-        <f t="shared" si="16"/>
-        <v>168</v>
-      </c>
-      <c r="AT80" s="4">
-        <f t="shared" si="17"/>
-        <v>166</v>
-      </c>
-      <c r="AU80" s="4">
-        <f t="shared" si="18"/>
-        <v>164</v>
-      </c>
-      <c r="AV80" s="4">
-        <f t="shared" si="19"/>
-        <v>162</v>
-      </c>
-      <c r="AW80" s="4">
-        <f t="shared" si="20"/>
-        <v>160</v>
-      </c>
-      <c r="AX80" s="4">
-        <f t="shared" si="21"/>
-        <v>158</v>
-      </c>
-      <c r="AY80" s="4">
-        <f t="shared" si="22"/>
-        <v>156</v>
-      </c>
-      <c r="AZ80" s="4">
-        <f t="shared" si="23"/>
-        <v>154</v>
+        <f>(X81*B15+W81*B11)</f>
+        <v>5735.5507235120167</v>
       </c>
     </row>
-    <row r="81" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C81" s="4">
         <v>214</v>
       </c>
-      <c r="O81" s="18" t="s">
-        <v>55</v>
+      <c r="O81" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="P81" s="4">
         <v>0.71099999999999997</v>
@@ -14804,142 +15256,31 @@
       <c r="Q81" s="4">
         <v>0.82199999999999995</v>
       </c>
-      <c r="R81" s="18">
+      <c r="R81" s="17">
         <v>0.63800000000000001</v>
       </c>
       <c r="S81" s="4">
         <v>0.69799999999999995</v>
       </c>
+      <c r="V81" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="W81" s="4">
-        <f t="shared" si="24"/>
-        <v>570</v>
+        <v>1.5783672829724482E-2</v>
       </c>
       <c r="X81" s="4">
-        <f t="shared" si="26"/>
-        <v>209</v>
-      </c>
-      <c r="Y81" s="4">
-        <f t="shared" si="27"/>
-        <v>207</v>
-      </c>
-      <c r="Z81" s="4">
-        <f t="shared" si="28"/>
-        <v>205</v>
-      </c>
-      <c r="AA81" s="4">
-        <f t="shared" si="29"/>
-        <v>203</v>
-      </c>
-      <c r="AB81" s="4">
-        <f t="shared" si="30"/>
-        <v>201</v>
-      </c>
-      <c r="AC81" s="4">
-        <f t="shared" si="31"/>
-        <v>199</v>
-      </c>
-      <c r="AD81" s="4">
-        <f t="shared" si="32"/>
-        <v>197</v>
-      </c>
-      <c r="AE81" s="4">
-        <f t="shared" si="33"/>
-        <v>195</v>
-      </c>
-      <c r="AF81" s="4">
-        <f t="shared" si="34"/>
-        <v>193</v>
-      </c>
-      <c r="AG81" s="4">
-        <f t="shared" si="35"/>
-        <v>191</v>
-      </c>
-      <c r="AH81" s="4">
-        <f t="shared" si="36"/>
-        <v>189</v>
-      </c>
-      <c r="AI81" s="4">
-        <f t="shared" si="37"/>
-        <v>187</v>
-      </c>
-      <c r="AJ81" s="4">
-        <f t="shared" si="38"/>
-        <v>185</v>
-      </c>
-      <c r="AK81" s="4">
-        <f t="shared" si="39"/>
-        <v>183</v>
-      </c>
-      <c r="AL81" s="4">
-        <f t="shared" si="40"/>
-        <v>181</v>
-      </c>
-      <c r="AM81" s="4">
-        <f t="shared" si="41"/>
-        <v>179</v>
-      </c>
-      <c r="AN81" s="4">
-        <f t="shared" si="42"/>
-        <v>177</v>
-      </c>
-      <c r="AO81" s="4">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="AP81" s="4">
-        <f t="shared" si="13"/>
-        <v>173</v>
-      </c>
-      <c r="AQ81" s="4">
-        <f t="shared" si="14"/>
-        <v>171</v>
-      </c>
-      <c r="AR81" s="4">
-        <f t="shared" si="15"/>
-        <v>169</v>
-      </c>
-      <c r="AS81" s="4">
-        <f t="shared" si="16"/>
-        <v>167</v>
-      </c>
-      <c r="AT81" s="4">
-        <f t="shared" si="17"/>
-        <v>165</v>
-      </c>
-      <c r="AU81" s="4">
-        <f t="shared" si="18"/>
-        <v>163</v>
-      </c>
-      <c r="AV81" s="4">
-        <f t="shared" si="19"/>
-        <v>161</v>
-      </c>
-      <c r="AW81" s="4">
-        <f t="shared" si="20"/>
-        <v>159</v>
-      </c>
-      <c r="AX81" s="4">
-        <f t="shared" si="21"/>
-        <v>157</v>
-      </c>
-      <c r="AY81" s="4">
-        <f t="shared" si="22"/>
-        <v>155</v>
-      </c>
-      <c r="AZ81" s="4">
-        <f t="shared" si="23"/>
-        <v>153</v>
+        <v>6.2077615427518218E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C82" s="4">
         <v>214</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P82" s="4">
         <v>0.84299999999999997</v>
@@ -14947,1221 +15288,171 @@
       <c r="Q82" s="4">
         <v>0.622</v>
       </c>
-      <c r="R82" s="18">
+      <c r="R82" s="17">
         <v>0.76100000000000001</v>
       </c>
       <c r="S82" s="4">
         <v>0.81200000000000006</v>
       </c>
+      <c r="V82" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="W82" s="4">
-        <f t="shared" si="24"/>
-        <v>560</v>
+        <v>3.501823260838155E-2</v>
       </c>
       <c r="X82" s="4">
-        <f t="shared" si="26"/>
-        <v>208</v>
-      </c>
-      <c r="Y82" s="4">
-        <f t="shared" si="27"/>
-        <v>206</v>
-      </c>
-      <c r="Z82" s="4">
-        <f t="shared" si="28"/>
-        <v>204</v>
+        <v>9.1347982180319809E-3</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="AA82" s="4">
-        <f t="shared" si="29"/>
-        <v>202</v>
-      </c>
-      <c r="AB82" s="4">
-        <f t="shared" si="30"/>
-        <v>200</v>
-      </c>
-      <c r="AC82" s="4">
-        <f t="shared" si="31"/>
-        <v>198</v>
-      </c>
-      <c r="AD82" s="4">
-        <f t="shared" si="32"/>
-        <v>196</v>
-      </c>
-      <c r="AE82" s="4">
-        <f t="shared" si="33"/>
-        <v>194</v>
-      </c>
-      <c r="AF82" s="4">
-        <f t="shared" si="34"/>
-        <v>192</v>
-      </c>
-      <c r="AG82" s="4">
-        <f t="shared" si="35"/>
-        <v>190</v>
-      </c>
-      <c r="AH82" s="4">
-        <f t="shared" si="36"/>
-        <v>188</v>
-      </c>
-      <c r="AI82" s="4">
-        <f t="shared" si="37"/>
-        <v>186</v>
-      </c>
-      <c r="AJ82" s="4">
-        <f t="shared" si="38"/>
-        <v>184</v>
-      </c>
-      <c r="AK82" s="4">
-        <f t="shared" si="39"/>
-        <v>182</v>
-      </c>
-      <c r="AL82" s="4">
-        <f t="shared" si="40"/>
-        <v>180</v>
-      </c>
-      <c r="AM82" s="4">
-        <f t="shared" si="41"/>
-        <v>178</v>
-      </c>
-      <c r="AN82" s="4">
-        <f t="shared" si="42"/>
-        <v>176</v>
-      </c>
-      <c r="AO82" s="4">
-        <f t="shared" si="12"/>
-        <v>174</v>
-      </c>
-      <c r="AP82" s="4">
-        <f t="shared" si="13"/>
-        <v>172</v>
-      </c>
-      <c r="AQ82" s="4">
-        <f t="shared" si="14"/>
-        <v>170</v>
-      </c>
-      <c r="AR82" s="4">
-        <f t="shared" si="15"/>
-        <v>168</v>
-      </c>
-      <c r="AS82" s="4">
-        <f t="shared" si="16"/>
-        <v>166</v>
-      </c>
-      <c r="AT82" s="4">
-        <f t="shared" si="17"/>
-        <v>164</v>
-      </c>
-      <c r="AU82" s="4">
-        <f t="shared" si="18"/>
-        <v>162</v>
-      </c>
-      <c r="AV82" s="4">
-        <f t="shared" si="19"/>
-        <v>160</v>
-      </c>
-      <c r="AW82" s="4">
-        <f t="shared" si="20"/>
-        <v>158</v>
-      </c>
-      <c r="AX82" s="4">
-        <f t="shared" si="21"/>
-        <v>156</v>
-      </c>
-      <c r="AY82" s="4">
-        <f t="shared" si="22"/>
-        <v>154</v>
-      </c>
-      <c r="AZ82" s="4">
-        <f t="shared" si="23"/>
-        <v>152</v>
+        <f>(AA77*AA78+AA79*AA80)/(AA78+AA80)</f>
+        <v>0.50547747273336929</v>
       </c>
     </row>
-    <row r="83" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C83" s="4">
         <v>222</v>
       </c>
-      <c r="W83" s="4">
-        <f t="shared" si="24"/>
-        <v>550</v>
-      </c>
-      <c r="X83" s="4">
-        <f t="shared" si="26"/>
-        <v>207</v>
-      </c>
-      <c r="Y83" s="4">
-        <f t="shared" si="27"/>
-        <v>205</v>
-      </c>
-      <c r="Z83" s="4">
-        <f t="shared" si="28"/>
-        <v>203</v>
+      <c r="Z83" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="AA83" s="4">
-        <f t="shared" si="29"/>
-        <v>201</v>
-      </c>
-      <c r="AB83" s="4">
-        <f t="shared" si="30"/>
-        <v>199</v>
-      </c>
-      <c r="AC83" s="4">
-        <f t="shared" si="31"/>
-        <v>197</v>
-      </c>
-      <c r="AD83" s="4">
-        <f t="shared" si="32"/>
-        <v>195</v>
-      </c>
-      <c r="AE83" s="4">
-        <f t="shared" si="33"/>
-        <v>193</v>
-      </c>
-      <c r="AF83" s="4">
-        <f t="shared" si="34"/>
-        <v>191</v>
-      </c>
-      <c r="AG83" s="4">
-        <f t="shared" si="35"/>
-        <v>189</v>
-      </c>
-      <c r="AH83" s="4">
-        <f t="shared" si="36"/>
-        <v>187</v>
-      </c>
-      <c r="AI83" s="4">
-        <f t="shared" si="37"/>
-        <v>185</v>
-      </c>
-      <c r="AJ83" s="4">
-        <f t="shared" si="38"/>
-        <v>183</v>
-      </c>
-      <c r="AK83" s="4">
-        <f t="shared" si="39"/>
-        <v>181</v>
-      </c>
-      <c r="AL83" s="4">
-        <f t="shared" si="40"/>
-        <v>179</v>
-      </c>
-      <c r="AM83" s="4">
-        <f t="shared" si="41"/>
-        <v>177</v>
-      </c>
-      <c r="AN83" s="4">
-        <f t="shared" si="42"/>
-        <v>175</v>
-      </c>
-      <c r="AO83" s="4">
-        <f t="shared" si="12"/>
-        <v>173</v>
-      </c>
-      <c r="AP83" s="4">
-        <f t="shared" si="13"/>
-        <v>171</v>
-      </c>
-      <c r="AQ83" s="4">
-        <f t="shared" si="14"/>
-        <v>169</v>
-      </c>
-      <c r="AR83" s="4">
-        <f t="shared" si="15"/>
-        <v>167</v>
-      </c>
-      <c r="AS83" s="4">
-        <f t="shared" si="16"/>
-        <v>165</v>
-      </c>
-      <c r="AT83" s="4">
-        <f t="shared" si="17"/>
-        <v>163</v>
-      </c>
-      <c r="AU83" s="4">
-        <f t="shared" si="18"/>
-        <v>161</v>
-      </c>
-      <c r="AV83" s="4">
-        <f t="shared" si="19"/>
-        <v>159</v>
-      </c>
-      <c r="AW83" s="4">
-        <f t="shared" si="20"/>
-        <v>157</v>
-      </c>
-      <c r="AX83" s="4">
-        <f t="shared" si="21"/>
-        <v>155</v>
-      </c>
-      <c r="AY83" s="4">
-        <f t="shared" si="22"/>
-        <v>153</v>
-      </c>
-      <c r="AZ83" s="4">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f>ABS((AA77-AA79)/SQRT(AA82*(1-AA82)*((1/AA78)+(1/AA80))))</f>
+        <v>23.191289791407069</v>
       </c>
     </row>
-    <row r="84" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C84" s="4">
         <v>223</v>
       </c>
-      <c r="W84" s="4">
-        <f t="shared" si="24"/>
-        <v>540</v>
-      </c>
-      <c r="X84" s="4">
-        <f t="shared" si="26"/>
-        <v>206</v>
-      </c>
-      <c r="Y84" s="4">
-        <f t="shared" si="27"/>
-        <v>204</v>
-      </c>
-      <c r="Z84" s="4">
-        <f t="shared" si="28"/>
-        <v>202</v>
-      </c>
-      <c r="AA84" s="4">
-        <f t="shared" si="29"/>
-        <v>200</v>
-      </c>
-      <c r="AB84" s="4">
-        <f t="shared" si="30"/>
-        <v>198</v>
-      </c>
-      <c r="AC84" s="4">
-        <f t="shared" si="31"/>
-        <v>196</v>
-      </c>
-      <c r="AD84" s="4">
-        <f t="shared" si="32"/>
-        <v>194</v>
-      </c>
-      <c r="AE84" s="4">
-        <f t="shared" si="33"/>
-        <v>192</v>
-      </c>
-      <c r="AF84" s="4">
-        <f t="shared" si="34"/>
-        <v>190</v>
-      </c>
-      <c r="AG84" s="4">
-        <f t="shared" si="35"/>
-        <v>188</v>
-      </c>
-      <c r="AH84" s="4">
-        <f t="shared" si="36"/>
-        <v>186</v>
-      </c>
-      <c r="AI84" s="4">
-        <f t="shared" si="37"/>
-        <v>184</v>
-      </c>
-      <c r="AJ84" s="4">
-        <f t="shared" si="38"/>
-        <v>182</v>
-      </c>
-      <c r="AK84" s="4">
-        <f t="shared" si="39"/>
-        <v>180</v>
-      </c>
-      <c r="AL84" s="4">
-        <f t="shared" si="40"/>
-        <v>178</v>
-      </c>
-      <c r="AM84" s="4">
-        <f t="shared" si="41"/>
-        <v>176</v>
-      </c>
-      <c r="AN84" s="4">
-        <f t="shared" si="42"/>
-        <v>174</v>
-      </c>
-      <c r="AO84" s="4">
-        <f t="shared" si="12"/>
-        <v>172</v>
-      </c>
-      <c r="AP84" s="4">
-        <f t="shared" si="13"/>
-        <v>170</v>
-      </c>
-      <c r="AQ84" s="4">
-        <f t="shared" si="14"/>
-        <v>168</v>
-      </c>
-      <c r="AR84" s="4">
-        <f t="shared" si="15"/>
-        <v>166</v>
-      </c>
-      <c r="AS84" s="4">
-        <f t="shared" si="16"/>
-        <v>164</v>
-      </c>
-      <c r="AT84" s="4">
-        <f t="shared" si="17"/>
-        <v>162</v>
-      </c>
-      <c r="AU84" s="4">
-        <f t="shared" si="18"/>
-        <v>160</v>
-      </c>
-      <c r="AV84" s="4">
-        <f t="shared" si="19"/>
-        <v>158</v>
-      </c>
-      <c r="AW84" s="4">
-        <f t="shared" si="20"/>
-        <v>156</v>
-      </c>
-      <c r="AX84" s="4">
-        <f t="shared" si="21"/>
-        <v>154</v>
-      </c>
-      <c r="AY84" s="4">
-        <f t="shared" si="22"/>
-        <v>152</v>
-      </c>
-      <c r="AZ84" s="4">
-        <f t="shared" si="23"/>
-        <v>150</v>
+      <c r="Z84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA84" s="25">
+        <f>2*(1-_xlfn.NORM.S.DIST(AA83,TRUE))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C85" s="4">
         <v>218</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P85" s="4">
         <f>AVERAGE(P81,R81,S81)</f>
         <v>0.68233333333333324</v>
       </c>
-      <c r="W85" s="4">
-        <f t="shared" si="24"/>
-        <v>530</v>
-      </c>
-      <c r="X85" s="4">
-        <f t="shared" si="26"/>
-        <v>205</v>
-      </c>
-      <c r="Y85" s="4">
-        <f t="shared" si="27"/>
-        <v>203</v>
-      </c>
-      <c r="Z85" s="4">
-        <f t="shared" si="28"/>
-        <v>201</v>
-      </c>
-      <c r="AA85" s="4">
-        <f t="shared" si="29"/>
-        <v>199</v>
-      </c>
-      <c r="AB85" s="4">
-        <f t="shared" si="30"/>
-        <v>197</v>
-      </c>
-      <c r="AC85" s="4">
-        <f t="shared" si="31"/>
-        <v>195</v>
-      </c>
-      <c r="AD85" s="4">
-        <f t="shared" si="32"/>
-        <v>193</v>
-      </c>
-      <c r="AE85" s="4">
-        <f t="shared" si="33"/>
-        <v>191</v>
-      </c>
-      <c r="AF85" s="4">
-        <f t="shared" si="34"/>
-        <v>189</v>
-      </c>
-      <c r="AG85" s="4">
-        <f t="shared" si="35"/>
-        <v>187</v>
-      </c>
-      <c r="AH85" s="4">
-        <f t="shared" si="36"/>
-        <v>185</v>
-      </c>
-      <c r="AI85" s="4">
-        <f t="shared" si="37"/>
-        <v>183</v>
-      </c>
-      <c r="AJ85" s="4">
-        <f t="shared" si="38"/>
-        <v>181</v>
-      </c>
-      <c r="AK85" s="4">
-        <f t="shared" si="39"/>
-        <v>179</v>
-      </c>
-      <c r="AL85" s="4">
-        <f t="shared" si="40"/>
-        <v>177</v>
-      </c>
-      <c r="AM85" s="4">
-        <f t="shared" si="41"/>
-        <v>175</v>
-      </c>
-      <c r="AN85" s="4">
-        <f t="shared" si="42"/>
-        <v>173</v>
-      </c>
-      <c r="AO85" s="4">
-        <f t="shared" si="12"/>
-        <v>171</v>
-      </c>
-      <c r="AP85" s="4">
-        <f t="shared" si="13"/>
-        <v>169</v>
-      </c>
-      <c r="AQ85" s="4">
-        <f t="shared" si="14"/>
-        <v>167</v>
-      </c>
-      <c r="AR85" s="4">
-        <f t="shared" si="15"/>
-        <v>165</v>
-      </c>
-      <c r="AS85" s="4">
-        <f t="shared" si="16"/>
-        <v>163</v>
-      </c>
-      <c r="AT85" s="4">
-        <f t="shared" si="17"/>
-        <v>161</v>
-      </c>
-      <c r="AU85" s="4">
-        <f t="shared" si="18"/>
-        <v>159</v>
-      </c>
-      <c r="AV85" s="4">
-        <f t="shared" si="19"/>
-        <v>157</v>
-      </c>
-      <c r="AW85" s="4">
-        <f t="shared" si="20"/>
-        <v>155</v>
-      </c>
-      <c r="AX85" s="4">
-        <f t="shared" si="21"/>
-        <v>153</v>
-      </c>
-      <c r="AY85" s="4">
-        <f t="shared" si="22"/>
-        <v>151</v>
-      </c>
-      <c r="AZ85" s="4">
-        <f t="shared" si="23"/>
-        <v>149</v>
-      </c>
     </row>
-    <row r="86" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C86" s="4">
         <v>217</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P86" s="4">
         <f>Q82</f>
         <v>0.622</v>
       </c>
-      <c r="W86" s="4">
-        <f t="shared" si="24"/>
-        <v>520</v>
-      </c>
-      <c r="X86" s="4">
-        <f t="shared" si="26"/>
-        <v>204</v>
-      </c>
-      <c r="Y86" s="4">
-        <f t="shared" si="27"/>
-        <v>202</v>
-      </c>
-      <c r="Z86" s="4">
-        <f t="shared" si="28"/>
-        <v>200</v>
-      </c>
-      <c r="AA86" s="4">
-        <f t="shared" si="29"/>
-        <v>198</v>
-      </c>
-      <c r="AB86" s="4">
-        <f t="shared" si="30"/>
-        <v>196</v>
-      </c>
-      <c r="AC86" s="4">
-        <f t="shared" si="31"/>
-        <v>194</v>
-      </c>
-      <c r="AD86" s="4">
-        <f t="shared" si="32"/>
-        <v>192</v>
-      </c>
-      <c r="AE86" s="4">
-        <f t="shared" si="33"/>
-        <v>190</v>
-      </c>
-      <c r="AF86" s="4">
-        <f t="shared" si="34"/>
-        <v>188</v>
-      </c>
-      <c r="AG86" s="4">
-        <f t="shared" si="35"/>
-        <v>186</v>
-      </c>
-      <c r="AH86" s="4">
-        <f t="shared" si="36"/>
-        <v>184</v>
-      </c>
-      <c r="AI86" s="4">
-        <f t="shared" si="37"/>
-        <v>182</v>
-      </c>
-      <c r="AJ86" s="4">
-        <f t="shared" si="38"/>
-        <v>180</v>
-      </c>
-      <c r="AK86" s="4">
-        <f t="shared" si="39"/>
-        <v>178</v>
-      </c>
-      <c r="AL86" s="4">
-        <f t="shared" si="40"/>
-        <v>176</v>
-      </c>
-      <c r="AM86" s="4">
-        <f t="shared" si="41"/>
-        <v>174</v>
-      </c>
-      <c r="AN86" s="4">
-        <f t="shared" si="42"/>
-        <v>172</v>
-      </c>
-      <c r="AO86" s="4">
-        <f t="shared" si="12"/>
-        <v>170</v>
-      </c>
-      <c r="AP86" s="4">
-        <f t="shared" si="13"/>
-        <v>168</v>
-      </c>
-      <c r="AQ86" s="4">
-        <f t="shared" si="14"/>
-        <v>166</v>
-      </c>
-      <c r="AR86" s="4">
-        <f t="shared" si="15"/>
-        <v>164</v>
-      </c>
-      <c r="AS86" s="4">
-        <f t="shared" si="16"/>
-        <v>162</v>
-      </c>
-      <c r="AT86" s="4">
-        <f t="shared" si="17"/>
-        <v>160</v>
-      </c>
-      <c r="AU86" s="4">
-        <f t="shared" si="18"/>
-        <v>158</v>
-      </c>
-      <c r="AV86" s="4">
-        <f t="shared" si="19"/>
-        <v>156</v>
-      </c>
-      <c r="AW86" s="4">
-        <f t="shared" si="20"/>
-        <v>154</v>
-      </c>
-      <c r="AX86" s="4">
-        <f t="shared" si="21"/>
-        <v>152</v>
-      </c>
-      <c r="AY86" s="4">
-        <f t="shared" si="22"/>
-        <v>150</v>
-      </c>
-      <c r="AZ86" s="4">
-        <f t="shared" si="23"/>
-        <v>148</v>
-      </c>
     </row>
-    <row r="87" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C87" s="4">
         <v>212</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P87" s="4">
         <f>AVERAGE(P85,P86)</f>
         <v>0.65216666666666656</v>
       </c>
-      <c r="W87" s="4">
-        <f t="shared" si="24"/>
-        <v>510</v>
-      </c>
-      <c r="X87" s="4">
-        <f t="shared" si="26"/>
-        <v>203</v>
-      </c>
-      <c r="Y87" s="4">
-        <f t="shared" si="27"/>
-        <v>201</v>
-      </c>
-      <c r="Z87" s="4">
-        <f t="shared" si="28"/>
-        <v>199</v>
-      </c>
-      <c r="AA87" s="4">
-        <f t="shared" si="29"/>
-        <v>197</v>
-      </c>
-      <c r="AB87" s="4">
-        <f t="shared" si="30"/>
-        <v>195</v>
-      </c>
-      <c r="AC87" s="4">
-        <f t="shared" si="31"/>
-        <v>193</v>
-      </c>
-      <c r="AD87" s="4">
-        <f t="shared" si="32"/>
-        <v>191</v>
-      </c>
-      <c r="AE87" s="4">
-        <f t="shared" si="33"/>
-        <v>189</v>
-      </c>
-      <c r="AF87" s="4">
-        <f t="shared" si="34"/>
-        <v>187</v>
-      </c>
-      <c r="AG87" s="4">
-        <f t="shared" si="35"/>
-        <v>185</v>
-      </c>
-      <c r="AH87" s="4">
-        <f t="shared" si="36"/>
-        <v>183</v>
-      </c>
-      <c r="AI87" s="4">
-        <f t="shared" si="37"/>
-        <v>181</v>
-      </c>
-      <c r="AJ87" s="4">
-        <f t="shared" si="38"/>
-        <v>179</v>
-      </c>
-      <c r="AK87" s="4">
-        <f t="shared" si="39"/>
-        <v>177</v>
-      </c>
-      <c r="AL87" s="4">
-        <f t="shared" si="40"/>
-        <v>175</v>
-      </c>
-      <c r="AM87" s="4">
-        <f t="shared" si="41"/>
-        <v>173</v>
-      </c>
-      <c r="AN87" s="4">
-        <f t="shared" si="42"/>
-        <v>171</v>
-      </c>
-      <c r="AO87" s="4">
-        <f t="shared" si="12"/>
-        <v>169</v>
-      </c>
-      <c r="AP87" s="4">
-        <f t="shared" si="13"/>
-        <v>167</v>
-      </c>
-      <c r="AQ87" s="4">
-        <f t="shared" si="14"/>
-        <v>165</v>
-      </c>
-      <c r="AR87" s="4">
-        <f t="shared" si="15"/>
-        <v>163</v>
-      </c>
-      <c r="AS87" s="4">
-        <f t="shared" si="16"/>
-        <v>161</v>
-      </c>
-      <c r="AT87" s="4">
-        <f t="shared" si="17"/>
-        <v>159</v>
-      </c>
-      <c r="AU87" s="4">
-        <f t="shared" si="18"/>
-        <v>157</v>
-      </c>
-      <c r="AV87" s="4">
-        <f t="shared" si="19"/>
-        <v>155</v>
-      </c>
-      <c r="AW87" s="4">
-        <f t="shared" si="20"/>
-        <v>153</v>
-      </c>
-      <c r="AX87" s="4">
-        <f t="shared" si="21"/>
-        <v>151</v>
-      </c>
-      <c r="AY87" s="4">
-        <f t="shared" si="22"/>
-        <v>149</v>
-      </c>
-      <c r="AZ87" s="4">
-        <f t="shared" si="23"/>
-        <v>147</v>
-      </c>
     </row>
-    <row r="88" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" s="4">
         <v>215</v>
       </c>
-      <c r="W88" s="4">
-        <f t="shared" si="24"/>
-        <v>500</v>
-      </c>
-      <c r="X88" s="4">
-        <f t="shared" si="26"/>
-        <v>202</v>
-      </c>
-      <c r="Y88" s="4">
-        <f t="shared" si="27"/>
-        <v>200</v>
-      </c>
-      <c r="Z88" s="4">
-        <f t="shared" si="28"/>
-        <v>198</v>
-      </c>
-      <c r="AA88" s="4">
-        <f t="shared" si="29"/>
-        <v>196</v>
-      </c>
-      <c r="AB88" s="4">
-        <f t="shared" si="30"/>
-        <v>194</v>
-      </c>
-      <c r="AC88" s="4">
-        <f t="shared" si="31"/>
-        <v>192</v>
-      </c>
-      <c r="AD88" s="4">
-        <f t="shared" si="32"/>
-        <v>190</v>
-      </c>
-      <c r="AE88" s="4">
-        <f t="shared" si="33"/>
-        <v>188</v>
-      </c>
-      <c r="AF88" s="4">
-        <f t="shared" si="34"/>
-        <v>186</v>
-      </c>
-      <c r="AG88" s="4">
-        <f t="shared" si="35"/>
-        <v>184</v>
-      </c>
-      <c r="AH88" s="4">
-        <f t="shared" si="36"/>
-        <v>182</v>
-      </c>
-      <c r="AI88" s="4">
-        <f t="shared" si="37"/>
-        <v>180</v>
-      </c>
-      <c r="AJ88" s="4">
-        <f t="shared" si="38"/>
-        <v>178</v>
-      </c>
-      <c r="AK88" s="4">
-        <f t="shared" si="39"/>
-        <v>176</v>
-      </c>
-      <c r="AL88" s="4">
-        <f t="shared" si="40"/>
-        <v>174</v>
-      </c>
-      <c r="AM88" s="4">
-        <f t="shared" si="41"/>
-        <v>172</v>
-      </c>
-      <c r="AN88" s="4">
-        <f t="shared" si="42"/>
-        <v>170</v>
-      </c>
-      <c r="AO88" s="4">
-        <f t="shared" si="12"/>
-        <v>168</v>
-      </c>
-      <c r="AP88" s="4">
-        <f t="shared" si="13"/>
-        <v>166</v>
-      </c>
-      <c r="AQ88" s="4">
-        <f t="shared" si="14"/>
-        <v>164</v>
-      </c>
-      <c r="AR88" s="4">
-        <f t="shared" si="15"/>
-        <v>162</v>
-      </c>
-      <c r="AS88" s="4">
-        <f t="shared" si="16"/>
-        <v>160</v>
-      </c>
-      <c r="AT88" s="4">
-        <f t="shared" si="17"/>
-        <v>158</v>
-      </c>
-      <c r="AU88" s="4">
-        <f t="shared" si="18"/>
-        <v>156</v>
-      </c>
-      <c r="AV88" s="4">
-        <f t="shared" si="19"/>
-        <v>154</v>
-      </c>
-      <c r="AW88" s="4">
-        <f t="shared" si="20"/>
-        <v>152</v>
-      </c>
-      <c r="AX88" s="4">
-        <f t="shared" si="21"/>
-        <v>150</v>
-      </c>
-      <c r="AY88" s="4">
-        <f t="shared" si="22"/>
-        <v>148</v>
-      </c>
-      <c r="AZ88" s="4">
-        <f t="shared" si="23"/>
-        <v>146</v>
-      </c>
     </row>
-    <row r="89" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="4">
         <v>209</v>
       </c>
-      <c r="W89" s="4">
-        <f t="shared" ref="W89:W90" si="43">W88-10</f>
-        <v>490</v>
-      </c>
-      <c r="X89" s="4">
-        <f t="shared" ref="X89:X90" si="44">X88-1</f>
-        <v>201</v>
-      </c>
-      <c r="Y89" s="4">
-        <f t="shared" ref="Y89:Y90" si="45">Y88-1</f>
-        <v>199</v>
-      </c>
-      <c r="Z89" s="4">
-        <f t="shared" ref="Z89:Z90" si="46">Z88-1</f>
-        <v>197</v>
-      </c>
-      <c r="AA89" s="4">
-        <f t="shared" ref="AA89:AA90" si="47">AA88-1</f>
-        <v>195</v>
-      </c>
-      <c r="AB89" s="4">
-        <f t="shared" ref="AB89:AB90" si="48">AB88-1</f>
-        <v>193</v>
-      </c>
-      <c r="AC89" s="4">
-        <f t="shared" ref="AC89:AC90" si="49">AC88-1</f>
-        <v>191</v>
-      </c>
-      <c r="AD89" s="4">
-        <f t="shared" ref="AD89:AD90" si="50">AD88-1</f>
-        <v>189</v>
-      </c>
-      <c r="AE89" s="4">
-        <f t="shared" ref="AE89:AE90" si="51">AE88-1</f>
-        <v>187</v>
-      </c>
-      <c r="AF89" s="4">
-        <f t="shared" ref="AF89:AF90" si="52">AF88-1</f>
-        <v>185</v>
-      </c>
-      <c r="AG89" s="4">
-        <f t="shared" ref="AG89:AG90" si="53">AG88-1</f>
-        <v>183</v>
-      </c>
-      <c r="AH89" s="4">
-        <f t="shared" ref="AH89:AH90" si="54">AH88-1</f>
-        <v>181</v>
-      </c>
-      <c r="AI89" s="4">
-        <f t="shared" ref="AI89:AI90" si="55">AI88-1</f>
-        <v>179</v>
-      </c>
-      <c r="AJ89" s="4">
-        <f t="shared" ref="AJ89:AJ90" si="56">AJ88-1</f>
-        <v>177</v>
-      </c>
-      <c r="AK89" s="4">
-        <f t="shared" ref="AK89:AK90" si="57">AK88-1</f>
-        <v>175</v>
-      </c>
-      <c r="AL89" s="4">
-        <f t="shared" ref="AL89:AL90" si="58">AL88-1</f>
-        <v>173</v>
-      </c>
-      <c r="AM89" s="4">
-        <f t="shared" ref="AM89:AM90" si="59">AM88-1</f>
-        <v>171</v>
-      </c>
-      <c r="AN89" s="4">
-        <f t="shared" ref="AN89:AN90" si="60">AN88-1</f>
-        <v>169</v>
-      </c>
-      <c r="AO89" s="4">
-        <f t="shared" si="12"/>
-        <v>167</v>
-      </c>
-      <c r="AP89" s="4">
-        <f t="shared" si="13"/>
-        <v>165</v>
-      </c>
-      <c r="AQ89" s="4">
-        <f t="shared" si="14"/>
-        <v>163</v>
-      </c>
-      <c r="AR89" s="4">
-        <f t="shared" si="15"/>
-        <v>161</v>
-      </c>
-      <c r="AS89" s="4">
-        <f t="shared" si="16"/>
-        <v>159</v>
-      </c>
-      <c r="AT89" s="4">
-        <f t="shared" si="17"/>
-        <v>157</v>
-      </c>
-      <c r="AU89" s="4">
-        <f t="shared" si="18"/>
-        <v>155</v>
-      </c>
-      <c r="AV89" s="4">
-        <f t="shared" si="19"/>
-        <v>153</v>
-      </c>
-      <c r="AW89" s="4">
-        <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="AX89" s="4">
-        <f t="shared" si="21"/>
-        <v>149</v>
-      </c>
-      <c r="AY89" s="4">
-        <f t="shared" si="22"/>
-        <v>147</v>
-      </c>
-      <c r="AZ89" s="4">
-        <f t="shared" si="23"/>
-        <v>145</v>
-      </c>
     </row>
-    <row r="90" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" s="4">
         <v>211</v>
       </c>
-      <c r="W90" s="4">
-        <f t="shared" si="43"/>
-        <v>480</v>
-      </c>
-      <c r="X90" s="4">
-        <f t="shared" si="44"/>
-        <v>200</v>
-      </c>
-      <c r="Y90" s="4">
-        <f t="shared" si="45"/>
-        <v>198</v>
-      </c>
-      <c r="Z90" s="4">
-        <f t="shared" si="46"/>
-        <v>196</v>
-      </c>
-      <c r="AA90" s="4">
-        <f t="shared" si="47"/>
-        <v>194</v>
-      </c>
-      <c r="AB90" s="4">
-        <f t="shared" si="48"/>
-        <v>192</v>
-      </c>
-      <c r="AC90" s="4">
-        <f t="shared" si="49"/>
-        <v>190</v>
-      </c>
-      <c r="AD90" s="4">
-        <f t="shared" si="50"/>
-        <v>188</v>
-      </c>
-      <c r="AE90" s="4">
-        <f t="shared" si="51"/>
-        <v>186</v>
-      </c>
-      <c r="AF90" s="4">
-        <f t="shared" si="52"/>
-        <v>184</v>
-      </c>
-      <c r="AG90" s="4">
-        <f t="shared" si="53"/>
-        <v>182</v>
-      </c>
-      <c r="AH90" s="4">
-        <f t="shared" si="54"/>
-        <v>180</v>
-      </c>
-      <c r="AI90" s="4">
-        <f t="shared" si="55"/>
-        <v>178</v>
-      </c>
-      <c r="AJ90" s="4">
-        <f t="shared" si="56"/>
-        <v>176</v>
-      </c>
-      <c r="AK90" s="4">
-        <f t="shared" si="57"/>
-        <v>174</v>
-      </c>
-      <c r="AL90" s="4">
-        <f t="shared" si="58"/>
-        <v>172</v>
-      </c>
-      <c r="AM90" s="4">
-        <f t="shared" si="59"/>
-        <v>170</v>
-      </c>
-      <c r="AN90" s="4">
-        <f t="shared" si="60"/>
-        <v>168</v>
-      </c>
-      <c r="AO90" s="4">
-        <f t="shared" si="12"/>
-        <v>166</v>
-      </c>
-      <c r="AP90" s="4">
-        <f t="shared" si="13"/>
-        <v>164</v>
-      </c>
-      <c r="AQ90" s="4">
-        <f t="shared" si="14"/>
-        <v>162</v>
-      </c>
-      <c r="AR90" s="4">
-        <f t="shared" si="15"/>
-        <v>160</v>
-      </c>
-      <c r="AS90" s="4">
-        <f t="shared" si="16"/>
-        <v>158</v>
-      </c>
-      <c r="AT90" s="4">
-        <f t="shared" si="17"/>
-        <v>156</v>
-      </c>
-      <c r="AU90" s="4">
-        <f t="shared" si="18"/>
-        <v>154</v>
-      </c>
-      <c r="AV90" s="4">
-        <f t="shared" si="19"/>
-        <v>152</v>
-      </c>
-      <c r="AW90" s="4">
-        <f t="shared" si="20"/>
-        <v>150</v>
-      </c>
-      <c r="AX90" s="4">
-        <f t="shared" si="21"/>
-        <v>148</v>
-      </c>
-      <c r="AY90" s="4">
-        <f t="shared" si="22"/>
-        <v>146</v>
-      </c>
-      <c r="AZ90" s="4">
-        <f t="shared" si="23"/>
-        <v>144</v>
-      </c>
     </row>
-    <row r="91" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C91" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C92" s="4">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C94" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C95" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C96" s="4">
         <v>218</v>
@@ -16169,7 +15460,7 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C97" s="4">
         <v>210</v>
@@ -16177,7 +15468,7 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="4">
         <v>217</v>
@@ -16185,7 +15476,7 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C99" s="4">
         <v>211</v>
@@ -16193,7 +15484,7 @@
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C100" s="4">
         <v>216</v>
@@ -16201,7 +15492,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4">
         <v>219</v>
@@ -16209,7 +15500,7 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C102" s="4">
         <v>217</v>
@@ -16217,7 +15508,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C103" s="4">
         <v>214</v>
@@ -16225,7 +15516,7 @@
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="4">
         <v>208</v>
@@ -16233,7 +15524,7 @@
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="4">
         <v>217</v>
@@ -16241,7 +15532,7 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C106" s="4">
         <v>219</v>
@@ -16249,7 +15540,7 @@
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="4">
         <v>211</v>
@@ -16257,7 +15548,7 @@
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="4">
         <v>215</v>
@@ -16265,7 +15556,7 @@
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C109" s="4">
         <v>222</v>
@@ -16273,7 +15564,7 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C110" s="4">
         <v>222</v>
@@ -16281,7 +15572,7 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C111" s="4">
         <v>209</v>
@@ -16289,7 +15580,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="4">
         <v>214</v>
@@ -16297,7 +15588,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C113" s="4">
         <v>209</v>
@@ -16305,7 +15596,7 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C114" s="4">
         <v>208</v>
@@ -16313,7 +15604,7 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" s="4">
         <v>223</v>
@@ -16321,7 +15612,7 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C116" s="4">
         <v>208</v>
@@ -16329,7 +15620,7 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
         <f>AVERAGE(C63:C115)</f>
@@ -16343,27 +15634,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
   </mergeCells>
-  <conditionalFormatting sqref="X62:AZ90">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
-      <formula>200</formula>
-      <formula>209</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="between">
-      <formula>210</formula>
-      <formula>219</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>220</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
